--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ic5705b\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="514">
   <si>
     <t>Nombre de la U</t>
   </si>
@@ -1530,16 +1530,60 @@
   </si>
   <si>
     <t>3154111209</t>
+  </si>
+  <si>
+    <t>Jorge Anderson</t>
+  </si>
+  <si>
+    <t>Medina Contreras</t>
+  </si>
+  <si>
+    <t>1016080432|27</t>
+  </si>
+  <si>
+    <t>3105974731</t>
+  </si>
+  <si>
+    <t>jorge.medina@claro.com.co</t>
+  </si>
+  <si>
+    <t>jmedinacon1@outlook.com</t>
+  </si>
+  <si>
+    <t>3173034198</t>
+  </si>
+  <si>
+    <t>Estefania Medina Contreras</t>
+  </si>
+  <si>
+    <t>Gerencia de Gestion de Proyectos</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>Vianna Jimenez Ariza</t>
+  </si>
+  <si>
+    <t>Ricardo Osorno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1562,14 +1606,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
@@ -1653,8 +1700,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:T47" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:T49" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T49"/>
   <tableColumns count="20">
     <tableColumn id="1" name="Nombres" dataDxfId="19"/>
     <tableColumn id="2" name="Apellidos" dataDxfId="18"/>
@@ -1668,14 +1715,14 @@
     <tableColumn id="10" name="Correo Empresarial" dataDxfId="10"/>
     <tableColumn id="11" name="Correo Personal" dataDxfId="9"/>
     <tableColumn id="12" name="EPS" dataDxfId="8"/>
-    <tableColumn id="13" name="Numero en caso de emergencia" dataDxfId="0"/>
-    <tableColumn id="14" name="Nombre de caso de emergencia " dataDxfId="7"/>
-    <tableColumn id="15" name="Gerencia a que pertenece" dataDxfId="6"/>
-    <tableColumn id="16" name="Area de Gerencia" dataDxfId="5"/>
-    <tableColumn id="17" name="Nombre del Gerente " dataDxfId="4"/>
-    <tableColumn id="18" name="Nombre del tutor de la U" dataDxfId="3"/>
-    <tableColumn id="19" name="Celular del tutor" dataDxfId="2"/>
-    <tableColumn id="20" name="Correo del tutor " dataDxfId="1"/>
+    <tableColumn id="13" name="Numero en caso de emergencia" dataDxfId="7"/>
+    <tableColumn id="14" name="Nombre de caso de emergencia " dataDxfId="6"/>
+    <tableColumn id="15" name="Gerencia a que pertenece" dataDxfId="5"/>
+    <tableColumn id="16" name="Area de Gerencia" dataDxfId="4"/>
+    <tableColumn id="17" name="Nombre del Gerente " dataDxfId="3"/>
+    <tableColumn id="18" name="Nombre del tutor de la U" dataDxfId="2"/>
+    <tableColumn id="19" name="Celular del tutor" dataDxfId="1"/>
+    <tableColumn id="20" name="Correo del tutor " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1944,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4641,11 +4688,68 @@
         <v>369</v>
       </c>
     </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J48" r:id="rId1"/>
+    <hyperlink ref="K48" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -26,48 +26,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="514">
   <si>
-    <t>Nombre de la U</t>
-  </si>
-  <si>
-    <t>Celular Empresarial</t>
-  </si>
-  <si>
-    <t>Celular Personal</t>
-  </si>
-  <si>
-    <t>Correo Empresarial</t>
-  </si>
-  <si>
-    <t>Correo Personal</t>
-  </si>
-  <si>
     <t>EPS</t>
   </si>
   <si>
-    <t>Numero en caso de emergencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de caso de emergencia </t>
-  </si>
-  <si>
-    <t>Gerencia a que pertenece</t>
-  </si>
-  <si>
-    <t>Area de Gerencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre del Gerente </t>
-  </si>
-  <si>
-    <t>Nombre del tutor de la U</t>
-  </si>
-  <si>
-    <t>Celular del tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo del tutor </t>
-  </si>
-  <si>
     <t>UNIVERSIDAD PILOTO S.A.M</t>
   </si>
   <si>
@@ -1154,9 +1115,6 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>Carrera U</t>
-  </si>
-  <si>
     <t>ANDRE FERANDO</t>
   </si>
   <si>
@@ -1566,6 +1524,48 @@
   </si>
   <si>
     <t>Ricardo Osorno</t>
+  </si>
+  <si>
+    <t>Carrera</t>
+  </si>
+  <si>
+    <t>Universidad</t>
+  </si>
+  <si>
+    <t>Celular corporativo</t>
+  </si>
+  <si>
+    <t>Correo corporativo</t>
+  </si>
+  <si>
+    <t>Numero emergencia</t>
+  </si>
+  <si>
+    <t>Nombre emergencia</t>
+  </si>
+  <si>
+    <t>Gerencia</t>
+  </si>
+  <si>
+    <t>Nombre gerente</t>
+  </si>
+  <si>
+    <t>Nombre tutor</t>
+  </si>
+  <si>
+    <t>Celular tutor</t>
+  </si>
+  <si>
+    <t>Correo tutor</t>
+  </si>
+  <si>
+    <t>Correo personal</t>
+  </si>
+  <si>
+    <t>Celular personal</t>
+  </si>
+  <si>
+    <t>Area de gerencia</t>
   </si>
 </sst>
 </file>
@@ -1708,21 +1708,21 @@
     <tableColumn id="3" name="Cedula" dataDxfId="17"/>
     <tableColumn id="4" name="Edad" dataDxfId="16"/>
     <tableColumn id="5" name="Sexo" dataDxfId="15"/>
-    <tableColumn id="6" name="Carrera U" dataDxfId="14"/>
-    <tableColumn id="7" name="Nombre de la U" dataDxfId="13"/>
-    <tableColumn id="8" name="Celular Empresarial" dataDxfId="12"/>
-    <tableColumn id="9" name="Celular Personal" dataDxfId="11"/>
-    <tableColumn id="10" name="Correo Empresarial" dataDxfId="10"/>
-    <tableColumn id="11" name="Correo Personal" dataDxfId="9"/>
+    <tableColumn id="6" name="Carrera" dataDxfId="14"/>
+    <tableColumn id="7" name="Universidad" dataDxfId="13"/>
+    <tableColumn id="8" name="Celular corporativo" dataDxfId="12"/>
+    <tableColumn id="9" name="Celular personal" dataDxfId="11"/>
+    <tableColumn id="10" name="Correo corporativo" dataDxfId="10"/>
+    <tableColumn id="11" name="Correo personal" dataDxfId="9"/>
     <tableColumn id="12" name="EPS" dataDxfId="8"/>
-    <tableColumn id="13" name="Numero en caso de emergencia" dataDxfId="7"/>
-    <tableColumn id="14" name="Nombre de caso de emergencia " dataDxfId="6"/>
-    <tableColumn id="15" name="Gerencia a que pertenece" dataDxfId="5"/>
-    <tableColumn id="16" name="Area de Gerencia" dataDxfId="4"/>
-    <tableColumn id="17" name="Nombre del Gerente " dataDxfId="3"/>
-    <tableColumn id="18" name="Nombre del tutor de la U" dataDxfId="2"/>
-    <tableColumn id="19" name="Celular del tutor" dataDxfId="1"/>
-    <tableColumn id="20" name="Correo del tutor " dataDxfId="0"/>
+    <tableColumn id="13" name="Numero emergencia" dataDxfId="7"/>
+    <tableColumn id="14" name="Nombre emergencia" dataDxfId="6"/>
+    <tableColumn id="15" name="Gerencia" dataDxfId="5"/>
+    <tableColumn id="16" name="Area de gerencia" dataDxfId="4"/>
+    <tableColumn id="17" name="Nombre gerente" dataDxfId="3"/>
+    <tableColumn id="18" name="Nombre tutor" dataDxfId="2"/>
+    <tableColumn id="19" name="Celular tutor" dataDxfId="1"/>
+    <tableColumn id="20" name="Correo tutor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1993,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,72 +2022,72 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>504</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>506</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>513</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>507</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>508</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C2" s="1">
         <v>1007782227</v>
@@ -2096,60 +2096,60 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
         <v>3219508356</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1">
         <v>3208858761</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C3" s="1">
         <v>1100974320</v>
@@ -2158,45 +2158,45 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1">
         <v>3212782992</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M3" s="1">
         <v>3153620307</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C4" s="1">
         <v>1005280030</v>
@@ -2205,13 +2205,13 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>3112452682</v>
@@ -2220,36 +2220,36 @@
         <v>3213303116</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1">
         <v>3102277607</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C5" s="1">
         <v>1094930117</v>
@@ -2258,54 +2258,54 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>3203668649</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1">
         <v>3193245664</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C6" s="1">
         <v>1000471426</v>
@@ -2314,13 +2314,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1">
         <v>3215738503</v>
@@ -2329,45 +2329,45 @@
         <v>3215738503</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1">
         <v>3106176584</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="S6" s="1">
         <v>3176470761</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C7" s="1">
         <v>1026303777</v>
@@ -2376,13 +2376,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1">
         <v>3105694400</v>
@@ -2391,45 +2391,45 @@
         <v>3132450188</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1">
         <v>3142398721</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C8" s="1">
         <v>1007389545</v>
@@ -2438,13 +2438,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1">
         <v>3103012358</v>
@@ -2453,45 +2453,45 @@
         <v>3219300169</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M8" s="1">
         <v>3133252581</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C9" s="1">
         <v>1020844647</v>
@@ -2500,13 +2500,13 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1">
         <v>3112017146</v>
@@ -2515,45 +2515,45 @@
         <v>3142664100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M9" s="1">
         <v>3202914366</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C10" s="1">
         <v>1016114258</v>
@@ -2562,54 +2562,54 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1">
         <v>3208774411</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M10" s="1">
         <v>3219629951</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C11" s="1">
         <v>1010128592</v>
@@ -2618,54 +2618,54 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I11" s="1">
         <v>3177194449</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M11" s="1">
         <v>3172404991</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="S11" s="1">
         <v>3205590942</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C12" s="1">
         <v>1010138989</v>
@@ -2674,57 +2674,57 @@
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I12" s="1">
         <v>3235965703</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M12" s="1">
         <v>3167005258</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="S12" s="1">
         <v>3217004200</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C13" s="1">
         <v>1099216401</v>
@@ -2733,13 +2733,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H13" s="1">
         <v>3112494807</v>
@@ -2748,36 +2748,36 @@
         <v>3214236894</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1">
         <v>3138645758</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C14" s="1">
         <v>1121937124</v>
@@ -2786,13 +2786,13 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H14" s="1">
         <v>3112478857</v>
@@ -2801,45 +2801,45 @@
         <v>3142987244</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M14" s="1">
         <v>3133252356</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="S14" s="1">
         <v>3154039062</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C15" s="1">
         <v>1007380973</v>
@@ -2848,13 +2848,13 @@
         <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H15" s="1">
         <v>3105694725</v>
@@ -2863,42 +2863,42 @@
         <v>3213806819</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M15" s="1">
         <v>3504497219</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="S15" s="1">
         <v>3014227466</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C16" s="1">
         <v>1032502164</v>
@@ -2907,13 +2907,13 @@
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H16" s="1">
         <v>3103001311</v>
@@ -2922,45 +2922,45 @@
         <v>3185737192</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M16" s="1">
         <v>3162783601</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C17" s="1">
         <v>1000235705</v>
@@ -2969,13 +2969,13 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H17" s="1">
         <v>3102175208</v>
@@ -2984,42 +2984,42 @@
         <v>3133812520</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M17" s="1">
         <v>3163467527</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C18" s="1">
         <v>1003880826</v>
@@ -3028,13 +3028,13 @@
         <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H18" s="1">
         <v>3105694670</v>
@@ -3043,45 +3043,45 @@
         <v>3213669709</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M18" s="1">
         <v>3204973066</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="S18" s="1">
         <v>3157686961</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C19" s="1">
         <v>1020840684</v>
@@ -3090,13 +3090,13 @@
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="H19" s="1">
         <v>3112541022</v>
@@ -3105,42 +3105,42 @@
         <v>3015143981</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M19" s="1">
         <v>3157200425</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C20" s="1">
         <v>1001287686</v>
@@ -3149,13 +3149,13 @@
         <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H20" s="1">
         <v>3102218377</v>
@@ -3164,45 +3164,45 @@
         <v>3004542994</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M20" s="1">
         <v>3107578355</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="S20" s="1">
         <v>3014227466</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C21" s="1">
         <v>1019131586</v>
@@ -3211,57 +3211,57 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I21" s="1">
         <v>3102150285</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M21" s="1">
         <v>3138700705</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S21" s="1">
         <v>3114736996</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C22" s="1">
         <v>1017256037</v>
@@ -3270,51 +3270,51 @@
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="I22" s="1">
         <v>3208159163</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="M22" s="1">
         <v>3218483740</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C23" s="1">
         <v>1071167066</v>
@@ -3323,13 +3323,13 @@
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H23" s="1">
         <v>3102251264</v>
@@ -3338,42 +3338,42 @@
         <v>3108565988</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M23" s="1">
         <v>3137467377</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C24" s="1">
         <v>1002022925</v>
@@ -3382,54 +3382,54 @@
         <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="I24" s="1">
         <v>3117318348</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M24" s="1">
         <v>3114108264</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C25" s="1">
         <v>1001778439</v>
@@ -3438,48 +3438,48 @@
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I25" s="1">
         <v>3143915661</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M25" s="1">
         <v>3114040811</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C26" s="1">
         <v>1192923745</v>
@@ -3488,54 +3488,54 @@
         <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="I26" s="1">
         <v>3166986457</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="M26" s="1">
         <v>3116587065</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C27" s="1">
         <v>1115093443</v>
@@ -3544,57 +3544,57 @@
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I27" s="1">
         <v>3173641527</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M27" s="1">
         <v>3160523161</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="S27" s="1">
         <v>3205590942</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C28" s="1">
         <v>1000274512</v>
@@ -3603,13 +3603,13 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H28" s="1">
         <v>3105694543</v>
@@ -3618,45 +3618,45 @@
         <v>3112392527</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M28" s="1">
         <v>3112392527</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C29" s="1">
         <v>1006515556</v>
@@ -3665,13 +3665,13 @@
         <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="H29" s="1">
         <v>3102040309</v>
@@ -3680,33 +3680,33 @@
         <v>3118898429</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M29" s="1">
         <v>3144266436</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C30" s="1">
         <v>1007420307</v>
@@ -3715,13 +3715,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H30" s="1">
         <v>3102196285</v>
@@ -3730,45 +3730,45 @@
         <v>3214157461</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M30" s="1">
         <v>3105618805</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="S30" s="1">
         <v>3002091849</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="C31" s="1">
         <v>1000601969</v>
@@ -3777,13 +3777,13 @@
         <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="H31" s="1">
         <v>3102180316</v>
@@ -3792,36 +3792,36 @@
         <v>3046578029</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M31" s="1">
         <v>3153481795</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C32" s="1">
         <v>1006108395</v>
@@ -3830,57 +3830,57 @@
         <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I32" s="1">
         <v>3178525995</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="M32" s="1">
         <v>3145476248</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="S32" s="1">
         <v>3218126409</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C33" s="1">
         <v>1000047984</v>
@@ -3889,54 +3889,54 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="I33" s="1">
         <v>3164303593</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M33" s="1">
         <v>3202710105</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C34" s="1">
         <v>1026308511</v>
@@ -3945,13 +3945,13 @@
         <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H34" s="1">
         <v>3105695253</v>
@@ -3960,45 +3960,45 @@
         <v>3196979625</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M34" s="1">
         <v>3112759400</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="S34" s="1">
         <v>3014227466</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C35" s="1">
         <v>1000350829</v>
@@ -4007,13 +4007,13 @@
         <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H35" s="1">
         <v>3112452183</v>
@@ -4022,45 +4022,45 @@
         <v>3166458591</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M35" s="1">
         <v>3193939933</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C36" s="1">
         <v>1019149471</v>
@@ -4069,13 +4069,13 @@
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H36" s="1">
         <v>311254135</v>
@@ -4084,42 +4084,42 @@
         <v>3134648715</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="M36" s="1">
         <v>3208091917</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="C37" s="1">
         <v>1010243240</v>
@@ -4128,33 +4128,33 @@
         <v>23</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="I37" s="1">
         <v>3178541655</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C38" s="1">
         <v>1010103620</v>
@@ -4163,13 +4163,13 @@
         <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="H38" s="1">
         <v>3102136082</v>
@@ -4178,45 +4178,45 @@
         <v>3143598153</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M38" s="1">
         <v>3208321276</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C39" s="1">
         <v>1144101768</v>
@@ -4225,57 +4225,57 @@
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I39" s="1">
         <v>3016002191</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M39" s="1">
         <v>3204902729</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="S39" s="1">
         <v>3218126409</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C40" s="1">
         <v>1000929651</v>
@@ -4284,13 +4284,13 @@
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="H40" s="1">
         <v>3112540762</v>
@@ -4299,45 +4299,45 @@
         <v>3213077753</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M40" s="1">
         <v>3118191915</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="S40" s="1">
         <v>3124120537</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C41" s="1">
         <v>1102386691</v>
@@ -4346,36 +4346,36 @@
         <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I41" s="1">
         <v>3147196229</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M41" s="1">
         <v>3008821390</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C42" s="1">
         <v>1032507611</v>
@@ -4384,13 +4384,13 @@
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H42" s="1">
         <v>3103023581</v>
@@ -4399,45 +4399,45 @@
         <v>3157621911</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="M42" s="1">
         <v>3153571552</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="S42" s="1">
         <v>3102272029</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C43" s="1">
         <v>1001117426</v>
@@ -4446,13 +4446,13 @@
         <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="H43" s="1">
         <v>3102254652</v>
@@ -4461,45 +4461,45 @@
         <v>3182167815</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M43" s="1">
         <v>3115903720</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C44" s="1">
         <v>1032499811</v>
@@ -4508,13 +4508,13 @@
         <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="H44" s="1">
         <v>3112135684</v>
@@ -4523,15 +4523,15 @@
         <v>3182395487</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="C45" s="1">
         <v>1014597117</v>
@@ -4540,45 +4540,45 @@
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="M45" s="1">
         <v>3153880819</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C46" s="1">
         <v>1000048455</v>
@@ -4587,13 +4587,13 @@
         <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="H46" s="1">
         <v>3102097253</v>
@@ -4602,45 +4602,45 @@
         <v>3124944097</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M46" s="1">
         <v>3125117388</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="S46" s="1">
         <v>3115415018</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="C47" s="1">
         <v>1001167125</v>
@@ -4649,13 +4649,13 @@
         <v>22</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="H47" s="1">
         <v>3102007212</v>
@@ -4664,81 +4664,81 @@
         <v>3157761032</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="M47" s="1">
         <v>3183265043</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ic5705b\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,9 +1121,6 @@
     <t>FLORIAN SALCEDO</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>ING DE SISTEMAS</t>
   </si>
   <si>
@@ -1157,9 +1154,6 @@
     <t xml:space="preserve">Acuña Castro </t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leidy Marcela </t>
   </si>
   <si>
@@ -1566,6 +1560,12 @@
   </si>
   <si>
     <t>Area de gerencia</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
   </si>
 </sst>
 </file>
@@ -1700,8 +1700,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:T49" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:T48" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T48"/>
   <tableColumns count="20">
     <tableColumn id="1" name="Nombres" dataDxfId="19"/>
     <tableColumn id="2" name="Apellidos" dataDxfId="18"/>
@@ -1993,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,49 +2037,49 @@
         <v>362</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2096,10 +2096,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C3" s="1">
         <v>1100974320</v>
@@ -2158,10 +2158,10 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -2193,10 +2193,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C4" s="1">
         <v>1005280030</v>
@@ -2205,10 +2205,10 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="C5" s="1">
         <v>1094930117</v>
@@ -2258,10 +2258,10 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="C6" s="1">
         <v>1000471426</v>
@@ -2314,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>42</v>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C7" s="1">
         <v>1026303777</v>
@@ -2376,10 +2376,10 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>47</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" s="1">
         <v>1007389545</v>
@@ -2438,10 +2438,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>58</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C9" s="1">
         <v>1020844647</v>
@@ -2500,10 +2500,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>68</v>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C10" s="1">
         <v>1016114258</v>
@@ -2562,10 +2562,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>77</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="1">
         <v>1010128592</v>
@@ -2618,10 +2618,10 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>87</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C12" s="1">
         <v>1010138989</v>
@@ -2674,10 +2674,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>96</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C13" s="1">
         <v>1099216401</v>
@@ -2733,10 +2733,10 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>104</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C14" s="1">
         <v>1121937124</v>
@@ -2786,10 +2786,10 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>108</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C15" s="1">
         <v>1007380973</v>
@@ -2848,10 +2848,10 @@
         <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>114</v>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C16" s="1">
         <v>1032502164</v>
@@ -2907,10 +2907,10 @@
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>123</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C17" s="1">
         <v>1000235705</v>
@@ -2969,10 +2969,10 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>77</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C18" s="1">
         <v>1003880826</v>
@@ -3028,10 +3028,10 @@
         <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>142</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C19" s="1">
         <v>1020840684</v>
@@ -3090,10 +3090,10 @@
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>151</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C20" s="1">
         <v>1001287686</v>
@@ -3149,10 +3149,10 @@
         <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>114</v>
@@ -3199,10 +3199,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C21" s="1">
         <v>1019131586</v>
@@ -3211,10 +3211,10 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>167</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C22" s="1">
         <v>1017256037</v>
@@ -3270,10 +3270,10 @@
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>176</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C23" s="1">
         <v>1071167066</v>
@@ -3323,10 +3323,10 @@
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>182</v>
@@ -3370,10 +3370,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C24" s="1">
         <v>1002022925</v>
@@ -3382,10 +3382,10 @@
         <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>192</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C25" s="1">
         <v>1001778439</v>
@@ -3438,10 +3438,10 @@
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>201</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C26" s="1">
         <v>1192923745</v>
@@ -3488,10 +3488,10 @@
         <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>192</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C27" s="1">
         <v>1115093443</v>
@@ -3544,10 +3544,10 @@
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>87</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C28" s="1">
         <v>1000274512</v>
@@ -3603,10 +3603,10 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>218</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C29" s="1">
         <v>1006515556</v>
@@ -3665,10 +3665,10 @@
         <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>228</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C30" s="1">
         <v>1007420307</v>
@@ -3715,10 +3715,10 @@
         <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>234</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C31" s="1">
         <v>1000601969</v>
@@ -3777,10 +3777,10 @@
         <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>228</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C32" s="1">
         <v>1006108395</v>
@@ -3830,10 +3830,10 @@
         <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>248</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C33" s="1">
         <v>1000047984</v>
@@ -3889,10 +3889,10 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>258</v>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C34" s="1">
         <v>1026308511</v>
@@ -3945,10 +3945,10 @@
         <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>114</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C35" s="1">
         <v>1000350829</v>
@@ -4007,10 +4007,10 @@
         <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>167</v>
@@ -4057,10 +4057,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C36" s="1">
         <v>1019149471</v>
@@ -4069,10 +4069,10 @@
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>281</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C37" s="1">
         <v>1010243240</v>
@@ -4128,10 +4128,10 @@
         <v>23</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>114</v>
@@ -4151,10 +4151,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C38" s="1">
         <v>1010103620</v>
@@ -4163,10 +4163,10 @@
         <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>151</v>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C39" s="1">
         <v>1144101768</v>
@@ -4225,10 +4225,10 @@
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>248</v>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C40" s="1">
         <v>1000929651</v>
@@ -4284,10 +4284,10 @@
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>304</v>
@@ -4334,10 +4334,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C41" s="1">
         <v>1102386691</v>
@@ -4346,10 +4346,10 @@
         <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C42" s="1">
         <v>1032507611</v>
@@ -4384,10 +4384,10 @@
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>142</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C43" s="1">
         <v>1001117426</v>
@@ -4446,10 +4446,10 @@
         <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>322</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C44" s="1">
         <v>1032499811</v>
@@ -4508,10 +4508,10 @@
         <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>332</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C45" s="1">
         <v>1014597117</v>
@@ -4540,16 +4540,16 @@
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>334</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>335</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C46" s="1">
         <v>1000048455</v>
@@ -4587,7 +4587,7 @@
         <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>42</v>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C47" s="1">
         <v>1001167125</v>
@@ -4649,10 +4649,10 @@
         <v>22</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>349</v>
@@ -4690,55 +4690,55 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>218</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>80</v>
       </c>
       <c r="M48" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="Q48" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ic5705b\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="517">
   <si>
     <t>EPS</t>
   </si>
@@ -1566,6 +1566,15 @@
   </si>
   <si>
     <t>Mujer</t>
+  </si>
+  <si>
+    <t>Correo gerente</t>
+  </si>
+  <si>
+    <t>Celular gerente</t>
+  </si>
+  <si>
+    <t>Regional</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1628,16 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1700,29 +1718,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:T48" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T48"/>
-  <tableColumns count="20">
-    <tableColumn id="1" name="Nombres" dataDxfId="19"/>
-    <tableColumn id="2" name="Apellidos" dataDxfId="18"/>
-    <tableColumn id="3" name="Cedula" dataDxfId="17"/>
-    <tableColumn id="4" name="Edad" dataDxfId="16"/>
-    <tableColumn id="5" name="Sexo" dataDxfId="15"/>
-    <tableColumn id="6" name="Carrera" dataDxfId="14"/>
-    <tableColumn id="7" name="Universidad" dataDxfId="13"/>
-    <tableColumn id="8" name="Celular corporativo" dataDxfId="12"/>
-    <tableColumn id="9" name="Celular personal" dataDxfId="11"/>
-    <tableColumn id="10" name="Correo corporativo" dataDxfId="10"/>
-    <tableColumn id="11" name="Correo personal" dataDxfId="9"/>
-    <tableColumn id="12" name="EPS" dataDxfId="8"/>
-    <tableColumn id="13" name="Numero emergencia" dataDxfId="7"/>
-    <tableColumn id="14" name="Nombre emergencia" dataDxfId="6"/>
-    <tableColumn id="15" name="Gerencia" dataDxfId="5"/>
-    <tableColumn id="16" name="Area de gerencia" dataDxfId="4"/>
-    <tableColumn id="17" name="Nombre gerente" dataDxfId="3"/>
-    <tableColumn id="18" name="Nombre tutor" dataDxfId="2"/>
-    <tableColumn id="19" name="Celular tutor" dataDxfId="1"/>
-    <tableColumn id="20" name="Correo tutor" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:W48" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:W48"/>
+  <tableColumns count="23">
+    <tableColumn id="1" name="Nombres" dataDxfId="22"/>
+    <tableColumn id="2" name="Apellidos" dataDxfId="21"/>
+    <tableColumn id="3" name="Cedula" dataDxfId="20"/>
+    <tableColumn id="4" name="Edad" dataDxfId="19"/>
+    <tableColumn id="5" name="Sexo" dataDxfId="18"/>
+    <tableColumn id="6" name="Carrera" dataDxfId="17"/>
+    <tableColumn id="7" name="Universidad" dataDxfId="16"/>
+    <tableColumn id="8" name="Celular corporativo" dataDxfId="15"/>
+    <tableColumn id="9" name="Celular personal" dataDxfId="14"/>
+    <tableColumn id="10" name="Correo corporativo" dataDxfId="13"/>
+    <tableColumn id="11" name="Correo personal" dataDxfId="12"/>
+    <tableColumn id="12" name="EPS" dataDxfId="11"/>
+    <tableColumn id="13" name="Numero emergencia" dataDxfId="10"/>
+    <tableColumn id="14" name="Nombre emergencia" dataDxfId="9"/>
+    <tableColumn id="15" name="Gerencia" dataDxfId="8"/>
+    <tableColumn id="16" name="Area de gerencia" dataDxfId="7"/>
+    <tableColumn id="17" name="Nombre gerente" dataDxfId="6"/>
+    <tableColumn id="18" name="Nombre tutor" dataDxfId="5"/>
+    <tableColumn id="19" name="Celular tutor" dataDxfId="4"/>
+    <tableColumn id="20" name="Correo tutor" dataDxfId="3"/>
+    <tableColumn id="21" name="Correo gerente" dataDxfId="2"/>
+    <tableColumn id="22" name="Celular gerente" dataDxfId="1"/>
+    <tableColumn id="23" name="Regional" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1991,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,9 +2039,12 @@
     <col min="18" max="18" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.42578125" customWidth="1"/>
+    <col min="22" max="22" width="30.28515625" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>358</v>
       </c>
@@ -2081,8 +2105,17 @@
       <c r="T1" s="1" t="s">
         <v>508</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>363</v>
       </c>
@@ -2143,8 +2176,11 @@
       <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>366</v>
       </c>
@@ -2190,8 +2226,11 @@
       <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>369</v>
       </c>
@@ -2243,8 +2282,11 @@
       <c r="Q4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>372</v>
       </c>
@@ -2299,8 +2341,11 @@
       <c r="T5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>374</v>
       </c>
@@ -2361,8 +2406,11 @@
       <c r="T6" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>376</v>
       </c>
@@ -2423,8 +2471,11 @@
       <c r="T7" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>379</v>
       </c>
@@ -2485,8 +2536,11 @@
       <c r="T8" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>382</v>
       </c>
@@ -2547,8 +2601,11 @@
       <c r="T9" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>385</v>
       </c>
@@ -2603,8 +2660,11 @@
       <c r="T10" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>388</v>
       </c>
@@ -2659,8 +2719,11 @@
       <c r="T11" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>391</v>
       </c>
@@ -2718,8 +2781,11 @@
       <c r="T12" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>394</v>
       </c>
@@ -2771,8 +2837,11 @@
       <c r="Q13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>396</v>
       </c>
@@ -2833,8 +2902,11 @@
       <c r="T14" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>399</v>
       </c>
@@ -2892,8 +2964,11 @@
       <c r="T15" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>402</v>
       </c>
@@ -2954,8 +3029,11 @@
       <c r="T16" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>405</v>
       </c>
@@ -3013,8 +3091,11 @@
       <c r="T17" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>408</v>
       </c>
@@ -3075,8 +3156,11 @@
       <c r="T18" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>411</v>
       </c>
@@ -3134,8 +3218,11 @@
       <c r="T19" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>414</v>
       </c>
@@ -3196,8 +3283,11 @@
       <c r="T20" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>416</v>
       </c>
@@ -3255,8 +3345,11 @@
       <c r="T21" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>419</v>
       </c>
@@ -3308,8 +3401,11 @@
       <c r="R22" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>422</v>
       </c>
@@ -3367,8 +3463,11 @@
       <c r="T23" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>425</v>
       </c>
@@ -3423,8 +3522,11 @@
       <c r="T24" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>428</v>
       </c>
@@ -3473,8 +3575,11 @@
       <c r="Q25" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>431</v>
       </c>
@@ -3529,8 +3634,11 @@
       <c r="T26" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>433</v>
       </c>
@@ -3588,8 +3696,11 @@
       <c r="T27" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>436</v>
       </c>
@@ -3650,8 +3761,11 @@
       <c r="T28" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>438</v>
       </c>
@@ -3700,8 +3814,11 @@
       <c r="Q29" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>441</v>
       </c>
@@ -3762,8 +3879,11 @@
       <c r="T30" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>444</v>
       </c>
@@ -3815,8 +3935,11 @@
       <c r="Q31" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>446</v>
       </c>
@@ -3874,8 +3997,11 @@
       <c r="T32" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>449</v>
       </c>
@@ -3930,8 +4056,11 @@
       <c r="T33" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>452</v>
       </c>
@@ -3992,8 +4121,11 @@
       <c r="T34" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>455</v>
       </c>
@@ -4054,8 +4186,11 @@
       <c r="T35" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>458</v>
       </c>
@@ -4113,8 +4248,11 @@
       <c r="T36" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>461</v>
       </c>
@@ -4148,8 +4286,11 @@
       <c r="L37" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>463</v>
       </c>
@@ -4210,8 +4351,11 @@
       <c r="T38" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>465</v>
       </c>
@@ -4269,8 +4413,11 @@
       <c r="T39" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>468</v>
       </c>
@@ -4331,8 +4478,11 @@
       <c r="T40" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>471</v>
       </c>
@@ -4369,8 +4519,11 @@
       <c r="N41" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>461</v>
       </c>
@@ -4431,8 +4584,11 @@
       <c r="T42" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>444</v>
       </c>
@@ -4493,8 +4649,11 @@
       <c r="T43" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>476</v>
       </c>
@@ -4525,8 +4684,11 @@
       <c r="J44" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>478</v>
       </c>
@@ -4572,8 +4734,11 @@
       <c r="Q45" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>465</v>
       </c>
@@ -4634,8 +4799,11 @@
       <c r="T46" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>482</v>
       </c>
@@ -4687,8 +4855,11 @@
       <c r="Q47" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>486</v>
       </c>
@@ -4740,6 +4911,9 @@
       <c r="R48" s="1" t="s">
         <v>497</v>
       </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ic5705b\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="491">
   <si>
     <t>EPS</t>
   </si>
@@ -50,9 +51,6 @@
     <t>DESARROLLO DEL NEGOCIO</t>
   </si>
   <si>
-    <t>DEMANDA Y EXPANSION DE LA COMPAÑIA</t>
-  </si>
-  <si>
     <t>NELSON FERNANDO</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>OLIVERIO</t>
   </si>
   <si>
-    <t>ECOMMERCE</t>
-  </si>
-  <si>
     <t>Alexander Gutierrez villaveces</t>
   </si>
   <si>
@@ -101,9 +96,6 @@
     <t>Ingenieria P&amp;S C+Cu Bucaramanga</t>
   </si>
   <si>
-    <t>Internet de las cosas IoT</t>
-  </si>
-  <si>
     <t>Arely Cancimanse</t>
   </si>
   <si>
@@ -125,9 +117,6 @@
     <t>Fabrica Software</t>
   </si>
   <si>
-    <t>Desarrollo</t>
-  </si>
-  <si>
     <t>Edwin Hernandez</t>
   </si>
   <si>
@@ -155,9 +144,6 @@
     <t>Mercadeo</t>
   </si>
   <si>
-    <t>Unidad de Mercadeo Masivo</t>
-  </si>
-  <si>
     <t>Andres Duque Ospina</t>
   </si>
   <si>
@@ -185,9 +171,6 @@
     <t>Experiencia</t>
   </si>
   <si>
-    <t>Mejora Continua</t>
-  </si>
-  <si>
     <t>Karen Quintero</t>
   </si>
   <si>
@@ -215,9 +198,6 @@
     <t>Experiencia Ciclo del Cliente</t>
   </si>
   <si>
-    <t>Experiencia al Cliente</t>
-  </si>
-  <si>
     <t>Alba Lucia Duque Salazar</t>
   </si>
   <si>
@@ -245,9 +225,6 @@
     <t>Analítica y automatización</t>
   </si>
   <si>
-    <t>Global Hitss</t>
-  </si>
-  <si>
     <t>Bibiana Galindo</t>
   </si>
   <si>
@@ -275,9 +252,6 @@
     <t xml:space="preserve">Ingeniería de red IP y transmisión </t>
   </si>
   <si>
-    <t xml:space="preserve">Dirección corporativa de tecnología </t>
-  </si>
-  <si>
     <t xml:space="preserve">Liliana Chacón González </t>
   </si>
   <si>
@@ -413,9 +387,6 @@
     <t>Gerencia de Innovación Productos Masivos</t>
   </si>
   <si>
-    <t>Innovación B2C</t>
-  </si>
-  <si>
     <t>Katherine Cadavid</t>
   </si>
   <si>
@@ -440,9 +411,6 @@
     <t>Sistemas gestion de red</t>
   </si>
   <si>
-    <t>Direccion O&amp;M</t>
-  </si>
-  <si>
     <t>Alberto Cantillo</t>
   </si>
   <si>
@@ -467,9 +435,6 @@
     <t>Gerencia Arquitectura de Red</t>
   </si>
   <si>
-    <t>Corporativa de tecnologia</t>
-  </si>
-  <si>
     <t>Mauricio Sanchez Diez</t>
   </si>
   <si>
@@ -497,9 +462,6 @@
     <t>Gerencia de implementación Core</t>
   </si>
   <si>
-    <t>Corporativa tecnología</t>
-  </si>
-  <si>
     <t>Diego Zea</t>
   </si>
   <si>
@@ -542,9 +504,6 @@
     <t xml:space="preserve">Gerencia experiencia al cliente </t>
   </si>
   <si>
-    <t>COE experiencia cliente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mary luz Cabrales </t>
   </si>
   <si>
@@ -590,9 +549,6 @@
     <t xml:space="preserve">Gerencia Ecommerce y C. digitales </t>
   </si>
   <si>
-    <t xml:space="preserve">Terminales y tecnlogia </t>
-  </si>
-  <si>
     <t>Esteban Noriega</t>
   </si>
   <si>
@@ -617,9 +573,6 @@
     <t>Gerencia Implementación y Optimización</t>
   </si>
   <si>
-    <t>Corporativa de tecnología</t>
-  </si>
-  <si>
     <t>Henry Marthe Turbay</t>
   </si>
   <si>
@@ -644,9 +597,6 @@
     <t>Direccion Region 1</t>
   </si>
   <si>
-    <t>Unidad Mercado Masivo</t>
-  </si>
-  <si>
     <t>Manuel Perez</t>
   </si>
   <si>
@@ -665,9 +615,6 @@
     <t>Gerencia Regional CAVS R2</t>
   </si>
   <si>
-    <t>Unidad de Mercado Masivo</t>
-  </si>
-  <si>
     <t>loaizad@globalhitss.com</t>
   </si>
   <si>
@@ -677,9 +624,6 @@
     <t>Gloria Patricia</t>
   </si>
   <si>
-    <t>Global hitss</t>
-  </si>
-  <si>
     <t>Universidad Minuto de Dios</t>
   </si>
   <si>
@@ -695,9 +639,6 @@
     <t>Gerencia de Soluciones Cloud</t>
   </si>
   <si>
-    <t>Area Marketing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jose Juian Jimenez </t>
   </si>
   <si>
@@ -743,9 +684,6 @@
     <t xml:space="preserve">Tecnología </t>
   </si>
   <si>
-    <t xml:space="preserve">Mantenimiento y Operación </t>
-  </si>
-  <si>
     <t>Javier Sarmiento</t>
   </si>
   <si>
@@ -788,9 +726,6 @@
     <t xml:space="preserve">Gerencia de Mercado Operacional </t>
   </si>
   <si>
-    <t xml:space="preserve">Go To Market </t>
-  </si>
-  <si>
     <t xml:space="preserve">Carolina Vargas Muñoz </t>
   </si>
   <si>
@@ -815,9 +750,6 @@
     <t>Gerencia de transformación y People analytics</t>
   </si>
   <si>
-    <t>Gestión humana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lina Maria Garzón Méndez </t>
   </si>
   <si>
@@ -854,9 +786,6 @@
     <t>Dirección Corporativa Marketing y Medios de Comunicación</t>
   </si>
   <si>
-    <t xml:space="preserve">Noticiero Red+ Noticias </t>
-  </si>
-  <si>
     <t>Giovanny Celis</t>
   </si>
   <si>
@@ -884,9 +813,6 @@
     <t>Gerencia Administrativa</t>
   </si>
   <si>
-    <t>Juridica y Asuntos Societarios</t>
-  </si>
-  <si>
     <t>Nayibe Castañeda</t>
   </si>
   <si>
@@ -911,9 +837,6 @@
     <t>Gerencia O&amp;M Transporte IP</t>
   </si>
   <si>
-    <t>Operacion y Mantenimiento Red</t>
-  </si>
-  <si>
     <t>Mario Andrés Hernandez Jaramillo</t>
   </si>
   <si>
@@ -932,9 +855,6 @@
     <t>Gerencia Regional R3</t>
   </si>
   <si>
-    <t>Go to Market</t>
-  </si>
-  <si>
     <t>Carlos Mario Gonazalez</t>
   </si>
   <si>
@@ -980,9 +900,6 @@
     <t>Oficina Proyectos de Tecnologia</t>
   </si>
   <si>
-    <t>Gestion de la demanda y arquitectura</t>
-  </si>
-  <si>
     <t>Fabiola Garzon</t>
   </si>
   <si>
@@ -1007,9 +924,6 @@
     <t>Cambio y cultura</t>
   </si>
   <si>
-    <t>Gestion humana</t>
-  </si>
-  <si>
     <t>Maria Paula Lopez</t>
   </si>
   <si>
@@ -1040,9 +954,6 @@
     <t>Universidad Claro</t>
   </si>
   <si>
-    <t xml:space="preserve">Comunicación </t>
-  </si>
-  <si>
     <t>Samuel Ocampo</t>
   </si>
   <si>
@@ -1061,9 +972,6 @@
     <t>Unidad de mercado masivo</t>
   </si>
   <si>
-    <t xml:space="preserve">Interconexión </t>
-  </si>
-  <si>
     <t>Camilo Andrés Serrano Espitia</t>
   </si>
   <si>
@@ -1091,9 +999,6 @@
     <t>Dirección Corporativa de Planeación Estrategica e Innovacion</t>
   </si>
   <si>
-    <t>Seguridad de la información, arquitectura de datos y consultoría</t>
-  </si>
-  <si>
     <t>Andrés Estupiñan</t>
   </si>
   <si>
@@ -1511,9 +1416,6 @@
     <t>Gerencia de Gestion de Proyectos</t>
   </si>
   <si>
-    <t>Proyectos</t>
-  </si>
-  <si>
     <t>Vianna Jimenez Ariza</t>
   </si>
   <si>
@@ -1566,6 +1468,36 @@
   </si>
   <si>
     <t>Mujer</t>
+  </si>
+  <si>
+    <t>corporativo financiero</t>
+  </si>
+  <si>
+    <t>corporativo gestion humana</t>
+  </si>
+  <si>
+    <t>corporativo juridico y asuntos corporativos</t>
+  </si>
+  <si>
+    <t>corporativo marketing y medios de comuncación</t>
+  </si>
+  <si>
+    <t>ejecutivo unidad mercado corporativo</t>
+  </si>
+  <si>
+    <t>auditoria</t>
+  </si>
+  <si>
+    <t>corporativo tecnologia</t>
+  </si>
+  <si>
+    <t>ejecutivo unidad mercado masivo</t>
+  </si>
+  <si>
+    <t>corporativo asuntos regulatorios y relaciones institucionales</t>
+  </si>
+  <si>
+    <t>corporativo planeación estrategica e innovación</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,72 +1954,72 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1">
         <v>1007782227</v>
@@ -2096,10 +2028,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -2129,27 +2061,27 @@
         <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C3" s="1">
         <v>1100974320</v>
@@ -2158,45 +2090,45 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1">
         <v>3212782992</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="1">
         <v>3153620307</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="C4" s="1">
         <v>1005280030</v>
@@ -2205,13 +2137,13 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1">
         <v>3112452682</v>
@@ -2220,36 +2152,36 @@
         <v>3213303116</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" s="1">
         <v>3102277607</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1">
         <v>1094930117</v>
@@ -2258,54 +2190,54 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1">
         <v>3203668649</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M5" s="1">
         <v>3193245664</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C6" s="1">
         <v>1000471426</v>
@@ -2314,13 +2246,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1">
         <v>3215738503</v>
@@ -2329,45 +2261,45 @@
         <v>3215738503</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1">
         <v>3106176584</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>481</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S6" s="1">
         <v>3176470761</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="C7" s="1">
         <v>1026303777</v>
@@ -2376,13 +2308,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1">
         <v>3105694400</v>
@@ -2391,45 +2323,45 @@
         <v>3132450188</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M7" s="1">
         <v>3142398721</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C8" s="1">
         <v>1007389545</v>
@@ -2438,13 +2370,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1">
         <v>3103012358</v>
@@ -2453,45 +2385,45 @@
         <v>3219300169</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="1">
         <v>3133252581</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>63</v>
+        <v>481</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C9" s="1">
         <v>1020844647</v>
@@ -2500,13 +2432,13 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1">
         <v>3112017146</v>
@@ -2515,45 +2447,45 @@
         <v>3142664100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="1">
         <v>3202914366</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>73</v>
+        <v>481</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="C10" s="1">
         <v>1016114258</v>
@@ -2562,54 +2494,54 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I10" s="1">
         <v>3208774411</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M10" s="1">
         <v>3219629951</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>83</v>
+        <v>481</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C11" s="1">
         <v>1010128592</v>
@@ -2618,54 +2550,57 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I11" s="1">
         <v>3177194449</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M11" s="1">
         <v>3172404991</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S11" s="1">
         <v>3205590942</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="C12" s="1">
         <v>1010138989</v>
@@ -2674,57 +2609,57 @@
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I12" s="1">
         <v>3235965703</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M12" s="1">
         <v>3167005258</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>73</v>
+        <v>481</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="S12" s="1">
         <v>3217004200</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="C13" s="1">
         <v>1099216401</v>
@@ -2733,13 +2668,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1">
         <v>3112494807</v>
@@ -2748,36 +2683,36 @@
         <v>3214236894</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M13" s="1">
         <v>3138645758</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>25</v>
+        <v>481</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="C14" s="1">
         <v>1121937124</v>
@@ -2786,13 +2721,13 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H14" s="1">
         <v>3112478857</v>
@@ -2801,45 +2736,45 @@
         <v>3142987244</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M14" s="1">
         <v>3133252356</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>33</v>
+        <v>481</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="S14" s="1">
         <v>3154039062</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="C15" s="1">
         <v>1007380973</v>
@@ -2848,13 +2783,13 @@
         <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H15" s="1">
         <v>3105694725</v>
@@ -2863,42 +2798,45 @@
         <v>3213806819</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M15" s="1">
         <v>3504497219</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S15" s="1">
         <v>3014227466</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="C16" s="1">
         <v>1032502164</v>
@@ -2907,13 +2845,13 @@
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H16" s="1">
         <v>3103001311</v>
@@ -2922,45 +2860,45 @@
         <v>3185737192</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M16" s="1">
         <v>3162783601</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>129</v>
+        <v>481</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="C17" s="1">
         <v>1000235705</v>
@@ -2969,13 +2907,13 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H17" s="1">
         <v>3102175208</v>
@@ -2984,42 +2922,42 @@
         <v>3133812520</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" s="1">
         <v>3163467527</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="C18" s="1">
         <v>1003880826</v>
@@ -3028,13 +2966,13 @@
         <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H18" s="1">
         <v>3105694670</v>
@@ -3043,45 +2981,45 @@
         <v>3213669709</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M18" s="1">
         <v>3204973066</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>147</v>
+        <v>481</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="S18" s="1">
         <v>3157686961</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C19" s="1">
         <v>1020840684</v>
@@ -3090,13 +3028,13 @@
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H19" s="1">
         <v>3112541022</v>
@@ -3105,42 +3043,42 @@
         <v>3015143981</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M19" s="1">
         <v>3157200425</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>157</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="C20" s="1">
         <v>1001287686</v>
@@ -3149,13 +3087,13 @@
         <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H20" s="1">
         <v>3102218377</v>
@@ -3164,45 +3102,45 @@
         <v>3004542994</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20" s="1">
         <v>3107578355</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>164</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="S20" s="1">
         <v>3014227466</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C21" s="1">
         <v>1019131586</v>
@@ -3211,57 +3149,57 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="I21" s="1">
         <v>3102150285</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21" s="1">
         <v>3138700705</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>172</v>
+        <v>481</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="S21" s="1">
         <v>3114736996</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="C22" s="1">
         <v>1017256037</v>
@@ -3270,51 +3208,51 @@
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I22" s="1">
         <v>3208159163</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M22" s="1">
         <v>3218483740</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>43</v>
+        <v>481</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="C23" s="1">
         <v>1071167066</v>
@@ -3323,13 +3261,13 @@
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H23" s="1">
         <v>3102251264</v>
@@ -3338,42 +3276,42 @@
         <v>3108565988</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="M23" s="1">
         <v>3137467377</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>188</v>
+        <v>481</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="C24" s="1">
         <v>1002022925</v>
@@ -3382,54 +3320,54 @@
         <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="I24" s="1">
         <v>3117318348</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M24" s="1">
         <v>3114108264</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>197</v>
+        <v>481</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="C25" s="1">
         <v>1001778439</v>
@@ -3438,48 +3376,48 @@
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I25" s="1">
         <v>3143915661</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M25" s="1">
         <v>3114040811</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>206</v>
+        <v>481</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C26" s="1">
         <v>1192923745</v>
@@ -3488,54 +3426,54 @@
         <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="I26" s="1">
         <v>3166986457</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M26" s="1">
         <v>3116587065</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>213</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C27" s="1">
         <v>1115093443</v>
@@ -3544,57 +3482,57 @@
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I27" s="1">
         <v>3173641527</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M27" s="1">
         <v>3160523161</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>217</v>
+        <v>481</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S27" s="1">
         <v>3205590942</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="C28" s="1">
         <v>1000274512</v>
@@ -3603,13 +3541,13 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H28" s="1">
         <v>3105694543</v>
@@ -3618,45 +3556,45 @@
         <v>3112392527</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M28" s="1">
         <v>3112392527</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>223</v>
+        <v>481</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C29" s="1">
         <v>1006515556</v>
@@ -3665,13 +3603,13 @@
         <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H29" s="1">
         <v>3102040309</v>
@@ -3680,33 +3618,36 @@
         <v>3118898429</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M29" s="1">
         <v>3144266436</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="C30" s="1">
         <v>1007420307</v>
@@ -3715,13 +3656,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="H30" s="1">
         <v>3102196285</v>
@@ -3730,45 +3671,45 @@
         <v>3214157461</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M30" s="1">
         <v>3105618805</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="S30" s="1">
         <v>3002091849</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="C31" s="1">
         <v>1000601969</v>
@@ -3777,13 +3718,13 @@
         <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H31" s="1">
         <v>3102180316</v>
@@ -3792,36 +3733,36 @@
         <v>3046578029</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M31" s="1">
         <v>3153481795</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>246</v>
+        <v>481</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="C32" s="1">
         <v>1006108395</v>
@@ -3830,57 +3771,57 @@
         <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="I32" s="1">
         <v>3178525995</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="M32" s="1">
         <v>3145476248</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>254</v>
+        <v>481</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="S32" s="1">
         <v>3218126409</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="C33" s="1">
         <v>1000047984</v>
@@ -3889,54 +3830,54 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="I33" s="1">
         <v>3164303593</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M33" s="1">
         <v>3202710105</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>263</v>
+        <v>481</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="C34" s="1">
         <v>1026308511</v>
@@ -3945,13 +3886,13 @@
         <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H34" s="1">
         <v>3105695253</v>
@@ -3960,45 +3901,45 @@
         <v>3196979625</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M34" s="1">
         <v>3112759400</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>73</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="S34" s="1">
         <v>3014227466</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="C35" s="1">
         <v>1000350829</v>
@@ -4007,13 +3948,13 @@
         <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H35" s="1">
         <v>3112452183</v>
@@ -4022,45 +3963,45 @@
         <v>3166458591</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M35" s="1">
         <v>3193939933</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>276</v>
+        <v>481</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="C36" s="1">
         <v>1019149471</v>
@@ -4069,13 +4010,13 @@
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="H36" s="1">
         <v>311254135</v>
@@ -4084,42 +4025,42 @@
         <v>3134648715</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M36" s="1">
         <v>3208091917</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>286</v>
+        <v>481</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="C37" s="1">
         <v>1010243240</v>
@@ -4128,33 +4069,36 @@
         <v>23</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I37" s="1">
         <v>3178541655</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="C38" s="1">
         <v>1010103620</v>
@@ -4163,13 +4107,13 @@
         <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H38" s="1">
         <v>3102136082</v>
@@ -4178,45 +4122,45 @@
         <v>3143598153</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M38" s="1">
         <v>3208321276</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>295</v>
+        <v>481</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="C39" s="1">
         <v>1144101768</v>
@@ -4225,57 +4169,57 @@
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="I39" s="1">
         <v>3016002191</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M39" s="1">
         <v>3204902729</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>302</v>
+        <v>481</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="S39" s="1">
         <v>3218126409</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="C40" s="1">
         <v>1000929651</v>
@@ -4284,13 +4228,13 @@
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="H40" s="1">
         <v>3112540762</v>
@@ -4299,45 +4243,45 @@
         <v>3213077753</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M40" s="1">
         <v>3118191915</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>187</v>
+        <v>481</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="S40" s="1">
         <v>3124120537</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="C41" s="1">
         <v>1102386691</v>
@@ -4346,36 +4290,39 @@
         <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="1">
         <v>3147196229</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M41" s="1">
         <v>3008821390</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>313</v>
+        <v>286</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="C42" s="1">
         <v>1032507611</v>
@@ -4384,13 +4331,13 @@
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H42" s="1">
         <v>3103023581</v>
@@ -4399,45 +4346,45 @@
         <v>3157621911</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M42" s="1">
         <v>3153571552</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>318</v>
+        <v>481</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="S42" s="1">
         <v>3102272029</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="C43" s="1">
         <v>1001117426</v>
@@ -4446,13 +4393,13 @@
         <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="H43" s="1">
         <v>3102254652</v>
@@ -4461,45 +4408,45 @@
         <v>3182167815</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M43" s="1">
         <v>3115903720</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>327</v>
+        <v>481</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="C44" s="1">
         <v>1032499811</v>
@@ -4508,13 +4455,13 @@
         <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="H44" s="1">
         <v>3112135684</v>
@@ -4523,15 +4470,18 @@
         <v>3182395487</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>333</v>
+        <v>304</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="C45" s="1">
         <v>1014597117</v>
@@ -4540,45 +4490,45 @@
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M45" s="1">
         <v>3153880819</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>338</v>
+        <v>481</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="C46" s="1">
         <v>1000048455</v>
@@ -4587,13 +4537,13 @@
         <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H46" s="1">
         <v>3102097253</v>
@@ -4602,45 +4552,45 @@
         <v>3124944097</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M46" s="1">
         <v>3125117388</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>345</v>
+        <v>481</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="S46" s="1">
         <v>3115415018</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="C47" s="1">
         <v>1001167125</v>
@@ -4649,13 +4599,13 @@
         <v>22</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="H47" s="1">
         <v>3102007212</v>
@@ -4664,81 +4614,81 @@
         <v>3157761032</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="M47" s="1">
         <v>3183265043</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4751,5 +4701,86 @@
   <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$D$2:$D$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P48</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="94.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fk7X9QE76IQyQVnXmtQsI39p4t6qUos6IM9X0IGkznN5wIDLyuvrK3rmb0ltKcybMXLGMKgHG/kpEA8q7kD5yQ==" saltValue="VkuySV/PhGMmDGPc8nUStA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ic5705b\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="493">
   <si>
     <t>EPS</t>
   </si>
@@ -50,9 +51,6 @@
     <t>DESARROLLO DEL NEGOCIO</t>
   </si>
   <si>
-    <t>DEMANDA Y EXPANSION DE LA COMPAÑIA</t>
-  </si>
-  <si>
     <t>NELSON FERNANDO</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>OLIVERIO</t>
   </si>
   <si>
-    <t>ECOMMERCE</t>
-  </si>
-  <si>
     <t>Alexander Gutierrez villaveces</t>
   </si>
   <si>
@@ -101,9 +96,6 @@
     <t>Ingenieria P&amp;S C+Cu Bucaramanga</t>
   </si>
   <si>
-    <t>Internet de las cosas IoT</t>
-  </si>
-  <si>
     <t>Arely Cancimanse</t>
   </si>
   <si>
@@ -125,9 +117,6 @@
     <t>Fabrica Software</t>
   </si>
   <si>
-    <t>Desarrollo</t>
-  </si>
-  <si>
     <t>Edwin Hernandez</t>
   </si>
   <si>
@@ -155,9 +144,6 @@
     <t>Mercadeo</t>
   </si>
   <si>
-    <t>Unidad de Mercadeo Masivo</t>
-  </si>
-  <si>
     <t>Andres Duque Ospina</t>
   </si>
   <si>
@@ -185,9 +171,6 @@
     <t>Experiencia</t>
   </si>
   <si>
-    <t>Mejora Continua</t>
-  </si>
-  <si>
     <t>Karen Quintero</t>
   </si>
   <si>
@@ -215,9 +198,6 @@
     <t>Experiencia Ciclo del Cliente</t>
   </si>
   <si>
-    <t>Experiencia al Cliente</t>
-  </si>
-  <si>
     <t>Alba Lucia Duque Salazar</t>
   </si>
   <si>
@@ -245,9 +225,6 @@
     <t>Analítica y automatización</t>
   </si>
   <si>
-    <t>Global Hitss</t>
-  </si>
-  <si>
     <t>Bibiana Galindo</t>
   </si>
   <si>
@@ -275,9 +252,6 @@
     <t xml:space="preserve">Ingeniería de red IP y transmisión </t>
   </si>
   <si>
-    <t xml:space="preserve">Dirección corporativa de tecnología </t>
-  </si>
-  <si>
     <t xml:space="preserve">Liliana Chacón González </t>
   </si>
   <si>
@@ -413,9 +387,6 @@
     <t>Gerencia de Innovación Productos Masivos</t>
   </si>
   <si>
-    <t>Innovación B2C</t>
-  </si>
-  <si>
     <t>Katherine Cadavid</t>
   </si>
   <si>
@@ -440,9 +411,6 @@
     <t>Sistemas gestion de red</t>
   </si>
   <si>
-    <t>Direccion O&amp;M</t>
-  </si>
-  <si>
     <t>Alberto Cantillo</t>
   </si>
   <si>
@@ -467,9 +435,6 @@
     <t>Gerencia Arquitectura de Red</t>
   </si>
   <si>
-    <t>Corporativa de tecnologia</t>
-  </si>
-  <si>
     <t>Mauricio Sanchez Diez</t>
   </si>
   <si>
@@ -497,9 +462,6 @@
     <t>Gerencia de implementación Core</t>
   </si>
   <si>
-    <t>Corporativa tecnología</t>
-  </si>
-  <si>
     <t>Diego Zea</t>
   </si>
   <si>
@@ -542,9 +504,6 @@
     <t xml:space="preserve">Gerencia experiencia al cliente </t>
   </si>
   <si>
-    <t>COE experiencia cliente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mary luz Cabrales </t>
   </si>
   <si>
@@ -590,9 +549,6 @@
     <t xml:space="preserve">Gerencia Ecommerce y C. digitales </t>
   </si>
   <si>
-    <t xml:space="preserve">Terminales y tecnlogia </t>
-  </si>
-  <si>
     <t>Esteban Noriega</t>
   </si>
   <si>
@@ -617,9 +573,6 @@
     <t>Gerencia Implementación y Optimización</t>
   </si>
   <si>
-    <t>Corporativa de tecnología</t>
-  </si>
-  <si>
     <t>Henry Marthe Turbay</t>
   </si>
   <si>
@@ -644,9 +597,6 @@
     <t>Direccion Region 1</t>
   </si>
   <si>
-    <t>Unidad Mercado Masivo</t>
-  </si>
-  <si>
     <t>Manuel Perez</t>
   </si>
   <si>
@@ -665,9 +615,6 @@
     <t>Gerencia Regional CAVS R2</t>
   </si>
   <si>
-    <t>Unidad de Mercado Masivo</t>
-  </si>
-  <si>
     <t>loaizad@globalhitss.com</t>
   </si>
   <si>
@@ -677,9 +624,6 @@
     <t>Gloria Patricia</t>
   </si>
   <si>
-    <t>Global hitss</t>
-  </si>
-  <si>
     <t>Universidad Minuto de Dios</t>
   </si>
   <si>
@@ -695,9 +639,6 @@
     <t>Gerencia de Soluciones Cloud</t>
   </si>
   <si>
-    <t>Area Marketing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jose Juian Jimenez </t>
   </si>
   <si>
@@ -743,9 +684,6 @@
     <t xml:space="preserve">Tecnología </t>
   </si>
   <si>
-    <t xml:space="preserve">Mantenimiento y Operación </t>
-  </si>
-  <si>
     <t>Javier Sarmiento</t>
   </si>
   <si>
@@ -788,9 +726,6 @@
     <t xml:space="preserve">Gerencia de Mercado Operacional </t>
   </si>
   <si>
-    <t xml:space="preserve">Go To Market </t>
-  </si>
-  <si>
     <t xml:space="preserve">Carolina Vargas Muñoz </t>
   </si>
   <si>
@@ -815,9 +750,6 @@
     <t>Gerencia de transformación y People analytics</t>
   </si>
   <si>
-    <t>Gestión humana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lina Maria Garzón Méndez </t>
   </si>
   <si>
@@ -854,9 +786,6 @@
     <t>Dirección Corporativa Marketing y Medios de Comunicación</t>
   </si>
   <si>
-    <t xml:space="preserve">Noticiero Red+ Noticias </t>
-  </si>
-  <si>
     <t>Giovanny Celis</t>
   </si>
   <si>
@@ -884,9 +813,6 @@
     <t>Gerencia Administrativa</t>
   </si>
   <si>
-    <t>Juridica y Asuntos Societarios</t>
-  </si>
-  <si>
     <t>Nayibe Castañeda</t>
   </si>
   <si>
@@ -911,9 +837,6 @@
     <t>Gerencia O&amp;M Transporte IP</t>
   </si>
   <si>
-    <t>Operacion y Mantenimiento Red</t>
-  </si>
-  <si>
     <t>Mario Andrés Hernandez Jaramillo</t>
   </si>
   <si>
@@ -932,9 +855,6 @@
     <t>Gerencia Regional R3</t>
   </si>
   <si>
-    <t>Go to Market</t>
-  </si>
-  <si>
     <t>Carlos Mario Gonazalez</t>
   </si>
   <si>
@@ -980,9 +900,6 @@
     <t>Oficina Proyectos de Tecnologia</t>
   </si>
   <si>
-    <t>Gestion de la demanda y arquitectura</t>
-  </si>
-  <si>
     <t>Fabiola Garzon</t>
   </si>
   <si>
@@ -1007,9 +924,6 @@
     <t>Cambio y cultura</t>
   </si>
   <si>
-    <t>Gestion humana</t>
-  </si>
-  <si>
     <t>Maria Paula Lopez</t>
   </si>
   <si>
@@ -1040,9 +954,6 @@
     <t>Universidad Claro</t>
   </si>
   <si>
-    <t xml:space="preserve">Comunicación </t>
-  </si>
-  <si>
     <t>Samuel Ocampo</t>
   </si>
   <si>
@@ -1061,9 +972,6 @@
     <t>Unidad de mercado masivo</t>
   </si>
   <si>
-    <t xml:space="preserve">Interconexión </t>
-  </si>
-  <si>
     <t>Camilo Andrés Serrano Espitia</t>
   </si>
   <si>
@@ -1091,9 +999,6 @@
     <t>Dirección Corporativa de Planeación Estrategica e Innovacion</t>
   </si>
   <si>
-    <t>Seguridad de la información, arquitectura de datos y consultoría</t>
-  </si>
-  <si>
     <t>Andrés Estupiñan</t>
   </si>
   <si>
@@ -1511,9 +1416,6 @@
     <t>Gerencia de Gestion de Proyectos</t>
   </si>
   <si>
-    <t>Proyectos</t>
-  </si>
-  <si>
     <t>Vianna Jimenez Ariza</t>
   </si>
   <si>
@@ -1566,13 +1468,49 @@
   </si>
   <si>
     <t>Mujer</t>
+  </si>
+  <si>
+    <t>corporativo financiero</t>
+  </si>
+  <si>
+    <t>Corporativo financiero</t>
+  </si>
+  <si>
+    <t>Corporativo gestión humana</t>
+  </si>
+  <si>
+    <t>Corporativo juridico y asuntos corporativos</t>
+  </si>
+  <si>
+    <t>Corporativo marketing y medios de comunicación</t>
+  </si>
+  <si>
+    <t>Ejecutivo unidad mercado corporativo</t>
+  </si>
+  <si>
+    <t>Auditoria</t>
+  </si>
+  <si>
+    <t>Corporativo tecnologia</t>
+  </si>
+  <si>
+    <t>Ejecutivo unidad mercado masivo</t>
+  </si>
+  <si>
+    <t>Corporativo asuntos reulatorios y relaciones institucionales</t>
+  </si>
+  <si>
+    <t>Corporativo planeación estrategica e innovación</t>
+  </si>
+  <si>
+    <t>Corporativo asuntos regulatorios y relaciones institucionales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1584,6 +1522,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1610,10 +1556,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1993,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,72 +1970,72 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1">
         <v>1007782227</v>
@@ -2096,10 +2044,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -2129,27 +2077,27 @@
         <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C3" s="1">
         <v>1100974320</v>
@@ -2158,45 +2106,45 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1">
         <v>3212782992</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="1">
         <v>3153620307</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="C4" s="1">
         <v>1005280030</v>
@@ -2205,13 +2153,13 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1">
         <v>3112452682</v>
@@ -2220,36 +2168,36 @@
         <v>3213303116</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" s="1">
         <v>3102277607</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1">
         <v>1094930117</v>
@@ -2258,54 +2206,54 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1">
         <v>3203668649</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M5" s="1">
         <v>3193245664</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C6" s="1">
         <v>1000471426</v>
@@ -2314,13 +2262,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1">
         <v>3215738503</v>
@@ -2329,45 +2277,45 @@
         <v>3215738503</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1">
         <v>3106176584</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>486</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S6" s="1">
         <v>3176470761</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="C7" s="1">
         <v>1026303777</v>
@@ -2376,13 +2324,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1">
         <v>3105694400</v>
@@ -2391,45 +2339,45 @@
         <v>3132450188</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M7" s="1">
         <v>3142398721</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C8" s="1">
         <v>1007389545</v>
@@ -2438,13 +2386,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1">
         <v>3103012358</v>
@@ -2453,45 +2401,45 @@
         <v>3219300169</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="1">
         <v>3133252581</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>63</v>
+        <v>487</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C9" s="1">
         <v>1020844647</v>
@@ -2500,13 +2448,13 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1">
         <v>3112017146</v>
@@ -2515,45 +2463,45 @@
         <v>3142664100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="1">
         <v>3202914366</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>73</v>
+        <v>488</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="C10" s="1">
         <v>1016114258</v>
@@ -2562,54 +2510,54 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I10" s="1">
         <v>3208774411</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M10" s="1">
         <v>3219629951</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>83</v>
+        <v>489</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C11" s="1">
         <v>1010128592</v>
@@ -2618,54 +2566,57 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I11" s="1">
         <v>3177194449</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M11" s="1">
         <v>3172404991</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S11" s="1">
         <v>3205590942</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="C12" s="1">
         <v>1010138989</v>
@@ -2674,57 +2625,57 @@
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I12" s="1">
         <v>3235965703</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M12" s="1">
         <v>3167005258</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>73</v>
+        <v>491</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="S12" s="1">
         <v>3217004200</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="C13" s="1">
         <v>1099216401</v>
@@ -2733,13 +2684,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1">
         <v>3112494807</v>
@@ -2748,36 +2699,36 @@
         <v>3214236894</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M13" s="1">
         <v>3138645758</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>25</v>
+        <v>481</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="C14" s="1">
         <v>1121937124</v>
@@ -2786,13 +2737,13 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H14" s="1">
         <v>3112478857</v>
@@ -2801,45 +2752,45 @@
         <v>3142987244</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M14" s="1">
         <v>3133252356</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>33</v>
+        <v>481</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="S14" s="1">
         <v>3154039062</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="C15" s="1">
         <v>1007380973</v>
@@ -2848,13 +2799,13 @@
         <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H15" s="1">
         <v>3105694725</v>
@@ -2863,42 +2814,45 @@
         <v>3213806819</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M15" s="1">
         <v>3504497219</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S15" s="1">
         <v>3014227466</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="C16" s="1">
         <v>1032502164</v>
@@ -2907,13 +2861,13 @@
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H16" s="1">
         <v>3103001311</v>
@@ -2922,45 +2876,45 @@
         <v>3185737192</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M16" s="1">
         <v>3162783601</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>129</v>
+        <v>481</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="C17" s="1">
         <v>1000235705</v>
@@ -2969,13 +2923,13 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H17" s="1">
         <v>3102175208</v>
@@ -2984,42 +2938,42 @@
         <v>3133812520</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" s="1">
         <v>3163467527</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="C18" s="1">
         <v>1003880826</v>
@@ -3028,13 +2982,13 @@
         <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H18" s="1">
         <v>3105694670</v>
@@ -3043,45 +2997,45 @@
         <v>3213669709</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M18" s="1">
         <v>3204973066</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>147</v>
+        <v>481</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="S18" s="1">
         <v>3157686961</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C19" s="1">
         <v>1020840684</v>
@@ -3090,13 +3044,13 @@
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H19" s="1">
         <v>3112541022</v>
@@ -3105,42 +3059,42 @@
         <v>3015143981</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M19" s="1">
         <v>3157200425</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>157</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="C20" s="1">
         <v>1001287686</v>
@@ -3149,13 +3103,13 @@
         <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H20" s="1">
         <v>3102218377</v>
@@ -3164,45 +3118,45 @@
         <v>3004542994</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20" s="1">
         <v>3107578355</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>164</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="S20" s="1">
         <v>3014227466</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C21" s="1">
         <v>1019131586</v>
@@ -3211,57 +3165,57 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="I21" s="1">
         <v>3102150285</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21" s="1">
         <v>3138700705</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>172</v>
+        <v>481</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="S21" s="1">
         <v>3114736996</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="C22" s="1">
         <v>1017256037</v>
@@ -3270,51 +3224,51 @@
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I22" s="1">
         <v>3208159163</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M22" s="1">
         <v>3218483740</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>43</v>
+        <v>481</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="C23" s="1">
         <v>1071167066</v>
@@ -3323,13 +3277,13 @@
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H23" s="1">
         <v>3102251264</v>
@@ -3338,42 +3292,42 @@
         <v>3108565988</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="M23" s="1">
         <v>3137467377</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>188</v>
+        <v>481</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="C24" s="1">
         <v>1002022925</v>
@@ -3382,54 +3336,54 @@
         <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="I24" s="1">
         <v>3117318348</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M24" s="1">
         <v>3114108264</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>197</v>
+        <v>481</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="C25" s="1">
         <v>1001778439</v>
@@ -3438,48 +3392,48 @@
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I25" s="1">
         <v>3143915661</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M25" s="1">
         <v>3114040811</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>206</v>
+        <v>481</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C26" s="1">
         <v>1192923745</v>
@@ -3488,54 +3442,54 @@
         <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="I26" s="1">
         <v>3166986457</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M26" s="1">
         <v>3116587065</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>213</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C27" s="1">
         <v>1115093443</v>
@@ -3544,57 +3498,57 @@
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I27" s="1">
         <v>3173641527</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M27" s="1">
         <v>3160523161</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>217</v>
+        <v>481</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S27" s="1">
         <v>3205590942</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="C28" s="1">
         <v>1000274512</v>
@@ -3603,13 +3557,13 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H28" s="1">
         <v>3105694543</v>
@@ -3618,45 +3572,45 @@
         <v>3112392527</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M28" s="1">
         <v>3112392527</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>223</v>
+        <v>481</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C29" s="1">
         <v>1006515556</v>
@@ -3665,13 +3619,13 @@
         <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H29" s="1">
         <v>3102040309</v>
@@ -3680,33 +3634,36 @@
         <v>3118898429</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M29" s="1">
         <v>3144266436</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="C30" s="1">
         <v>1007420307</v>
@@ -3715,13 +3672,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="H30" s="1">
         <v>3102196285</v>
@@ -3730,45 +3687,45 @@
         <v>3214157461</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M30" s="1">
         <v>3105618805</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="S30" s="1">
         <v>3002091849</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="C31" s="1">
         <v>1000601969</v>
@@ -3777,13 +3734,13 @@
         <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H31" s="1">
         <v>3102180316</v>
@@ -3792,36 +3749,36 @@
         <v>3046578029</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M31" s="1">
         <v>3153481795</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>246</v>
+        <v>481</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="C32" s="1">
         <v>1006108395</v>
@@ -3830,57 +3787,57 @@
         <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="I32" s="1">
         <v>3178525995</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="M32" s="1">
         <v>3145476248</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>254</v>
+        <v>481</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="S32" s="1">
         <v>3218126409</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="C33" s="1">
         <v>1000047984</v>
@@ -3889,54 +3846,54 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="I33" s="1">
         <v>3164303593</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M33" s="1">
         <v>3202710105</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>263</v>
+        <v>481</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="C34" s="1">
         <v>1026308511</v>
@@ -3945,13 +3902,13 @@
         <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H34" s="1">
         <v>3105695253</v>
@@ -3960,45 +3917,45 @@
         <v>3196979625</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M34" s="1">
         <v>3112759400</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>73</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="S34" s="1">
         <v>3014227466</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="C35" s="1">
         <v>1000350829</v>
@@ -4007,13 +3964,13 @@
         <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H35" s="1">
         <v>3112452183</v>
@@ -4022,45 +3979,45 @@
         <v>3166458591</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M35" s="1">
         <v>3193939933</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>276</v>
+        <v>481</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="C36" s="1">
         <v>1019149471</v>
@@ -4069,13 +4026,13 @@
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="H36" s="1">
         <v>311254135</v>
@@ -4084,42 +4041,42 @@
         <v>3134648715</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M36" s="1">
         <v>3208091917</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>286</v>
+        <v>481</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="C37" s="1">
         <v>1010243240</v>
@@ -4128,33 +4085,36 @@
         <v>23</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I37" s="1">
         <v>3178541655</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="C38" s="1">
         <v>1010103620</v>
@@ -4163,13 +4123,13 @@
         <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H38" s="1">
         <v>3102136082</v>
@@ -4178,45 +4138,45 @@
         <v>3143598153</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M38" s="1">
         <v>3208321276</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>295</v>
+        <v>481</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="C39" s="1">
         <v>1144101768</v>
@@ -4225,57 +4185,57 @@
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="I39" s="1">
         <v>3016002191</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M39" s="1">
         <v>3204902729</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>302</v>
+        <v>481</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="S39" s="1">
         <v>3218126409</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="C40" s="1">
         <v>1000929651</v>
@@ -4284,13 +4244,13 @@
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="H40" s="1">
         <v>3112540762</v>
@@ -4299,45 +4259,45 @@
         <v>3213077753</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M40" s="1">
         <v>3118191915</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>187</v>
+        <v>481</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="S40" s="1">
         <v>3124120537</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="C41" s="1">
         <v>1102386691</v>
@@ -4346,36 +4306,39 @@
         <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="1">
         <v>3147196229</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M41" s="1">
         <v>3008821390</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>313</v>
+        <v>286</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="C42" s="1">
         <v>1032507611</v>
@@ -4384,13 +4347,13 @@
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H42" s="1">
         <v>3103023581</v>
@@ -4399,45 +4362,45 @@
         <v>3157621911</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M42" s="1">
         <v>3153571552</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>318</v>
+        <v>481</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="S42" s="1">
         <v>3102272029</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="C43" s="1">
         <v>1001117426</v>
@@ -4446,13 +4409,13 @@
         <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="H43" s="1">
         <v>3102254652</v>
@@ -4461,45 +4424,45 @@
         <v>3182167815</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M43" s="1">
         <v>3115903720</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>327</v>
+        <v>481</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="C44" s="1">
         <v>1032499811</v>
@@ -4508,13 +4471,13 @@
         <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="H44" s="1">
         <v>3112135684</v>
@@ -4523,15 +4486,18 @@
         <v>3182395487</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>333</v>
+        <v>304</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="C45" s="1">
         <v>1014597117</v>
@@ -4540,45 +4506,45 @@
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M45" s="1">
         <v>3153880819</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>338</v>
+        <v>481</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="C46" s="1">
         <v>1000048455</v>
@@ -4587,13 +4553,13 @@
         <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H46" s="1">
         <v>3102097253</v>
@@ -4602,45 +4568,45 @@
         <v>3124944097</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M46" s="1">
         <v>3125117388</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>345</v>
+        <v>481</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="S46" s="1">
         <v>3115415018</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="C47" s="1">
         <v>1001167125</v>
@@ -4649,13 +4615,13 @@
         <v>22</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="H47" s="1">
         <v>3102007212</v>
@@ -4664,81 +4630,81 @@
         <v>3157761032</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="M47" s="1">
         <v>3183265043</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4751,5 +4717,88 @@
   <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$D$3:$D$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P48</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="85.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>487</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="6hUG6V79L/fEe0RpZ4eoYkNzu7NllDsuyGXLmjhp8PQFH6yOKxe5d5EdYV5Sfd6v/PcFSXHSCeBDNSd/sEX2Hg==" saltValue="oNxbGAsCa3kEdxCNfv0Hnw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="492">
   <si>
     <t>EPS</t>
   </si>
@@ -1495,9 +1495,6 @@
   </si>
   <si>
     <t>Ejecutivo unidad mercado masivo</t>
-  </si>
-  <si>
-    <t>Corporativo asuntos reulatorios y relaciones institucionales</t>
   </si>
   <si>
     <t>Corporativo planeación estrategica e innovación</t>
@@ -1942,7 +1939,7 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,7 +2593,7 @@
         <v>83</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>84</v>
@@ -2655,7 +2652,7 @@
         <v>92</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>84</v>
@@ -4788,12 +4785,12 @@
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ic5705b\Documents\GitHub\Proyecto-Generacion-XXI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\Proyecto generacion XXI\Proyecto-Generacion-XXI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="491">
   <si>
     <t>EPS</t>
   </si>
@@ -1468,9 +1468,6 @@
   </si>
   <si>
     <t>Mujer</t>
-  </si>
-  <si>
-    <t>corporativo financiero</t>
   </si>
   <si>
     <t>Corporativo financiero</t>
@@ -1553,11 +1550,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1938,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>8</v>
@@ -2130,7 +2126,7 @@
         <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>17</v>
@@ -2183,7 +2179,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>23</v>
@@ -2292,7 +2288,7 @@
         <v>38</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>39</v>
@@ -2354,7 +2350,7 @@
         <v>47</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>48</v>
@@ -2416,7 +2412,7 @@
         <v>56</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>57</v>
@@ -2478,7 +2474,7 @@
         <v>65</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>66</v>
@@ -2537,7 +2533,7 @@
         <v>74</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>75</v>
@@ -2593,7 +2589,7 @@
         <v>83</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>84</v>
@@ -2652,7 +2648,7 @@
         <v>92</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>84</v>
@@ -2714,7 +2710,7 @@
         <v>22</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>23</v>
@@ -2767,7 +2763,7 @@
         <v>92</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>84</v>
@@ -2829,7 +2825,7 @@
         <v>110</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>111</v>
@@ -2891,7 +2887,7 @@
         <v>119</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>120</v>
@@ -2953,7 +2949,7 @@
         <v>127</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>128</v>
@@ -3012,7 +3008,7 @@
         <v>135</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>136</v>
@@ -3074,7 +3070,7 @@
         <v>144</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>145</v>
@@ -3133,7 +3129,7 @@
         <v>151</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>152</v>
@@ -3192,7 +3188,7 @@
         <v>158</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>159</v>
@@ -3251,7 +3247,7 @@
         <v>38</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>39</v>
@@ -3307,7 +3303,7 @@
         <v>173</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>174</v>
@@ -3363,7 +3359,7 @@
         <v>181</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>182</v>
@@ -3419,7 +3415,7 @@
         <v>189</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>190</v>
@@ -3469,7 +3465,7 @@
         <v>195</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>190</v>
@@ -3525,7 +3521,7 @@
         <v>92</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>84</v>
@@ -3587,7 +3583,7 @@
         <v>203</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>204</v>
@@ -3649,7 +3645,7 @@
         <v>212</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>213</v>
@@ -3702,7 +3698,7 @@
         <v>218</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>219</v>
@@ -3764,7 +3760,7 @@
         <v>225</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>226</v>
@@ -3814,7 +3810,7 @@
         <v>232</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>233</v>
@@ -3873,7 +3869,7 @@
         <v>240</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>241</v>
@@ -3932,7 +3928,7 @@
         <v>247</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>248</v>
@@ -3994,7 +3990,7 @@
         <v>252</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>253</v>
@@ -4056,7 +4052,7 @@
         <v>261</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>262</v>
@@ -4103,7 +4099,7 @@
         <v>108</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4153,7 +4149,7 @@
         <v>269</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>270</v>
@@ -4212,7 +4208,7 @@
         <v>275</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>276</v>
@@ -4274,7 +4270,7 @@
         <v>281</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>282</v>
@@ -4327,7 +4323,7 @@
         <v>286</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -4377,7 +4373,7 @@
         <v>290</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>291</v>
@@ -4439,7 +4435,7 @@
         <v>298</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>299</v>
@@ -4486,7 +4482,7 @@
         <v>304</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -4530,7 +4526,7 @@
         <v>308</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>309</v>
@@ -4583,7 +4579,7 @@
         <v>314</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>315</v>
@@ -4645,7 +4641,7 @@
         <v>323</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>324</v>
@@ -4694,8 +4690,8 @@
       <c r="O48" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>481</v>
+      <c r="P48" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>463</v>
@@ -4734,7 +4730,7 @@
   <dimension ref="D3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,53 +4740,53 @@
   <sheetData>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>487</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>486</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="728">
   <si>
     <t>Nombres</t>
   </si>
@@ -976,6 +976,9 @@
     <t>Auditoría</t>
   </si>
   <si>
+    <t>Corporativo tecnología</t>
+  </si>
+  <si>
     <t>Corporativo tecnologia</t>
   </si>
   <si>
@@ -1357,6 +1360,12 @@
     <t>pedro.montagut@claro.com.co</t>
   </si>
   <si>
+    <t>alberto.cantillo@claro.com.co</t>
+  </si>
+  <si>
+    <t>vianna.jimenez@claro.com.co</t>
+  </si>
+  <si>
     <t>camilo.serrano@claro.com.co</t>
   </si>
   <si>
@@ -1375,6 +1384,12 @@
     <t>3203954516</t>
   </si>
   <si>
+    <t>3138592832</t>
+  </si>
+  <si>
+    <t>3115144187</t>
+  </si>
+  <si>
     <t>3213412364</t>
   </si>
   <si>
@@ -1639,7 +1654,7 @@
     <t>Nelson Velasco</t>
   </si>
   <si>
-    <t>Ricardo Osorno</t>
+    <t>Pedro Rivera</t>
   </si>
   <si>
     <t>Sandra Milena Ayala Suárez</t>
@@ -1735,6 +1750,9 @@
     <t>nelson.velasco@unimilitar.edu.co</t>
   </si>
   <si>
+    <t>pedro.rivera-o@uniminuto.edu.co</t>
+  </si>
+  <si>
     <t>practicas.electronica@unbosque.edu.co</t>
   </si>
   <si>
@@ -1805,6 +1823,9 @@
   </si>
   <si>
     <t>3205590942</t>
+  </si>
+  <si>
+    <t>3114329176</t>
   </si>
   <si>
     <t>3102272029</t>
@@ -2555,14 +2576,12 @@
     <col min="13" max="13" width="32.7109375" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="47.7109375" customWidth="1"/>
-    <col min="17" max="17" width="47.7109375" customWidth="1"/>
+    <col min="16" max="17" width="47.7109375" customWidth="1"/>
     <col min="18" max="18" width="34.7109375" customWidth="1"/>
     <col min="19" max="19" width="38.7109375" customWidth="1"/>
     <col min="20" max="20" width="21.7109375" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="29.7109375" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" customWidth="1"/>
+    <col min="22" max="23" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2668,43 +2687,43 @@
         <v>318</v>
       </c>
       <c r="K2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O2" t="s">
         <v>176</v>
       </c>
       <c r="P2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="Q2" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="R2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="S2" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="T2" t="s">
         <v>176</v>
       </c>
       <c r="U2" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="V2" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="W2" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2739,13 +2758,13 @@
         <v>318</v>
       </c>
       <c r="K3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L3" t="s">
         <v>176</v>
       </c>
       <c r="M3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N3" t="s">
         <v>176</v>
@@ -2754,28 +2773,28 @@
         <v>176</v>
       </c>
       <c r="P3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q3" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="R3" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="S3" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="T3" t="s">
         <v>176</v>
       </c>
       <c r="U3" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="V3" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="W3" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2810,13 +2829,13 @@
         <v>318</v>
       </c>
       <c r="K4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N4" t="s">
         <v>176</v>
@@ -2825,28 +2844,28 @@
         <v>176</v>
       </c>
       <c r="P4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="Q4" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="R4" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="S4" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="T4" t="s">
         <v>176</v>
       </c>
       <c r="U4" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="V4" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="W4" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2881,13 +2900,13 @@
         <v>318</v>
       </c>
       <c r="K5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L5" t="s">
         <v>176</v>
       </c>
       <c r="M5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N5" t="s">
         <v>176</v>
@@ -2896,28 +2915,28 @@
         <v>176</v>
       </c>
       <c r="P5" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q5" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="R5" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="S5" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="T5" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="U5" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="V5" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="W5" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2952,13 +2971,13 @@
         <v>318</v>
       </c>
       <c r="K6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N6" t="s">
         <v>176</v>
@@ -2967,28 +2986,28 @@
         <v>176</v>
       </c>
       <c r="P6" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q6" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="R6" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="S6" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="T6" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="U6" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="V6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="W6" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -3023,13 +3042,13 @@
         <v>318</v>
       </c>
       <c r="K7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N7" t="s">
         <v>176</v>
@@ -3038,28 +3057,28 @@
         <v>176</v>
       </c>
       <c r="P7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Q7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="R7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="S7" t="s">
         <v>252</v>
       </c>
       <c r="T7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="U7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="V7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="W7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -3094,13 +3113,13 @@
         <v>319</v>
       </c>
       <c r="K8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L8" t="s">
         <v>176</v>
       </c>
       <c r="M8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N8" t="s">
         <v>176</v>
@@ -3109,10 +3128,10 @@
         <v>176</v>
       </c>
       <c r="P8" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q8" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="R8" t="s">
         <v>176</v>
@@ -3124,13 +3143,13 @@
         <v>176</v>
       </c>
       <c r="U8" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V8" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="W8" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -3165,13 +3184,13 @@
         <v>318</v>
       </c>
       <c r="K9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N9" t="s">
         <v>176</v>
@@ -3180,28 +3199,28 @@
         <v>176</v>
       </c>
       <c r="P9" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q9" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="R9" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S9" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="T9" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="U9" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V9" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="W9" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -3236,43 +3255,43 @@
         <v>318</v>
       </c>
       <c r="K10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L10" t="s">
         <v>176</v>
       </c>
       <c r="M10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="Q10" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="R10" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="S10" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="T10" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="U10" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="V10" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="W10" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -3307,43 +3326,43 @@
         <v>318</v>
       </c>
       <c r="K11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O11" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P11" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q11" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="R11" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="S11" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="T11" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="U11" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="V11" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="W11" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -3378,13 +3397,13 @@
         <v>318</v>
       </c>
       <c r="K12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L12" t="s">
         <v>176</v>
       </c>
       <c r="M12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N12" t="s">
         <v>176</v>
@@ -3393,28 +3412,28 @@
         <v>176</v>
       </c>
       <c r="P12" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q12" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="R12" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="S12" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="T12" t="s">
         <v>176</v>
       </c>
       <c r="U12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="V12" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="W12" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -3449,13 +3468,13 @@
         <v>318</v>
       </c>
       <c r="K13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N13" t="s">
         <v>176</v>
@@ -3464,28 +3483,28 @@
         <v>176</v>
       </c>
       <c r="P13" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q13" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="R13" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="S13" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="T13" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="U13" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="V13" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="W13" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -3520,13 +3539,13 @@
         <v>318</v>
       </c>
       <c r="K14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L14" t="s">
         <v>176</v>
       </c>
       <c r="M14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N14" t="s">
         <v>176</v>
@@ -3535,28 +3554,28 @@
         <v>176</v>
       </c>
       <c r="P14" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="Q14" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="R14" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="S14" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="T14" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="U14" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V14" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="W14" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -3591,13 +3610,13 @@
         <v>318</v>
       </c>
       <c r="K15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N15" t="s">
         <v>176</v>
@@ -3606,28 +3625,28 @@
         <v>176</v>
       </c>
       <c r="P15" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q15" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="R15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="S15" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="T15" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="U15" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="V15" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="W15" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -3662,13 +3681,13 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L16" t="s">
         <v>176</v>
       </c>
       <c r="M16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N16" t="s">
         <v>176</v>
@@ -3677,10 +3696,10 @@
         <v>176</v>
       </c>
       <c r="P16" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q16" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="R16" t="s">
         <v>176</v>
@@ -3692,13 +3711,13 @@
         <v>176</v>
       </c>
       <c r="U16" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="V16" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="W16" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3733,13 +3752,13 @@
         <v>318</v>
       </c>
       <c r="K17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L17" t="s">
         <v>176</v>
       </c>
       <c r="M17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N17" t="s">
         <v>176</v>
@@ -3748,28 +3767,28 @@
         <v>176</v>
       </c>
       <c r="P17" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q17" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="R17" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="S17" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="T17" t="s">
         <v>176</v>
       </c>
       <c r="U17" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="V17" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="W17" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -3804,13 +3823,13 @@
         <v>318</v>
       </c>
       <c r="K18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L18" t="s">
         <v>176</v>
       </c>
       <c r="M18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N18" t="s">
         <v>176</v>
@@ -3819,13 +3838,13 @@
         <v>176</v>
       </c>
       <c r="P18" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="Q18" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="R18" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="S18" t="s">
         <v>176</v>
@@ -3834,13 +3853,13 @@
         <v>176</v>
       </c>
       <c r="U18" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="V18" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="W18" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3875,13 +3894,13 @@
         <v>318</v>
       </c>
       <c r="K19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N19" t="s">
         <v>176</v>
@@ -3890,28 +3909,28 @@
         <v>176</v>
       </c>
       <c r="P19" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="Q19" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="R19" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="S19" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="T19" t="s">
         <v>176</v>
       </c>
       <c r="U19" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="V19" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="W19" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3925,7 +3944,7 @@
         <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
         <v>173</v>
@@ -3943,46 +3962,46 @@
         <v>292</v>
       </c>
       <c r="J20" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>448</v>
       </c>
       <c r="O20" t="s">
-        <v>176</v>
+        <v>456</v>
       </c>
       <c r="P20" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q20" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="R20" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="S20" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="T20" t="s">
         <v>176</v>
       </c>
       <c r="U20" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V20" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="W20" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -4017,43 +4036,43 @@
         <v>318</v>
       </c>
       <c r="K21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L21" t="s">
         <v>195</v>
       </c>
       <c r="M21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>449</v>
       </c>
       <c r="O21" t="s">
-        <v>176</v>
+        <v>457</v>
       </c>
       <c r="P21" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q21" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="R21" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="S21" t="s">
-        <v>176</v>
+        <v>578</v>
       </c>
       <c r="T21" t="s">
-        <v>176</v>
+        <v>603</v>
       </c>
       <c r="U21" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="V21" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="W21" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -4088,13 +4107,13 @@
         <v>318</v>
       </c>
       <c r="K22" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N22" t="s">
         <v>176</v>
@@ -4103,10 +4122,10 @@
         <v>176</v>
       </c>
       <c r="P22" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q22" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="R22" t="s">
         <v>176</v>
@@ -4118,13 +4137,13 @@
         <v>176</v>
       </c>
       <c r="U22" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="V22" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="W22" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -4159,13 +4178,13 @@
         <v>318</v>
       </c>
       <c r="K23" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N23" t="s">
         <v>176</v>
@@ -4174,28 +4193,28 @@
         <v>176</v>
       </c>
       <c r="P23" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q23" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="R23" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="S23" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="T23" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="U23" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="V23" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="W23" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -4230,13 +4249,13 @@
         <v>318</v>
       </c>
       <c r="K24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N24" t="s">
         <v>176</v>
@@ -4245,28 +4264,28 @@
         <v>176</v>
       </c>
       <c r="P24" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="Q24" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="R24" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S24" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="T24" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="U24" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="V24" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="W24" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -4301,13 +4320,13 @@
         <v>318</v>
       </c>
       <c r="K25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N25" t="s">
         <v>176</v>
@@ -4316,28 +4335,28 @@
         <v>176</v>
       </c>
       <c r="P25" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Q25" t="s">
         <v>290</v>
       </c>
       <c r="R25" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="S25" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="T25" t="s">
         <v>176</v>
       </c>
       <c r="U25" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="V25" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="W25" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -4372,13 +4391,13 @@
         <v>318</v>
       </c>
       <c r="K26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N26" t="s">
         <v>176</v>
@@ -4387,25 +4406,25 @@
         <v>176</v>
       </c>
       <c r="P26" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q26" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="R26" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="S26" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="T26" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="U26" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="V26" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="W26" t="s">
         <v>200</v>
@@ -4443,43 +4462,43 @@
         <v>318</v>
       </c>
       <c r="K27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N27" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="O27" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P27" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q27" t="s">
         <v>290</v>
       </c>
       <c r="R27" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="S27" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="T27" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="U27" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V27" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="W27" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -4514,13 +4533,13 @@
         <v>318</v>
       </c>
       <c r="K28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L28" t="s">
         <v>176</v>
       </c>
       <c r="M28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N28" t="s">
         <v>176</v>
@@ -4529,28 +4548,28 @@
         <v>176</v>
       </c>
       <c r="P28" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Q28" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="R28" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="S28" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="T28" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="U28" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="V28" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="W28" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -4585,13 +4604,13 @@
         <v>318</v>
       </c>
       <c r="K29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M29" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N29" t="s">
         <v>176</v>
@@ -4600,10 +4619,10 @@
         <v>176</v>
       </c>
       <c r="P29" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="Q29" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="R29" t="s">
         <v>176</v>
@@ -4615,13 +4634,13 @@
         <v>176</v>
       </c>
       <c r="U29" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="V29" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="W29" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -4653,46 +4672,46 @@
         <v>302</v>
       </c>
       <c r="J30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N30" t="s">
         <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P30" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="Q30" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="R30" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="S30" t="s">
         <v>252</v>
       </c>
       <c r="T30" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="U30" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="V30" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="W30" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -4727,13 +4746,13 @@
         <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L31" t="s">
         <v>176</v>
       </c>
       <c r="M31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N31" t="s">
         <v>176</v>
@@ -4742,28 +4761,28 @@
         <v>176</v>
       </c>
       <c r="P31" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Q31" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="R31" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="S31" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="T31" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="U31" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="V31" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="W31" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -4798,13 +4817,13 @@
         <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s">
         <v>206</v>
       </c>
       <c r="M32" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N32" t="s">
         <v>176</v>
@@ -4813,28 +4832,28 @@
         <v>176</v>
       </c>
       <c r="P32" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="Q32" t="s">
         <v>290</v>
       </c>
       <c r="R32" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="S32" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="T32" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="U32" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="V32" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="W32" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -4869,43 +4888,43 @@
         <v>318</v>
       </c>
       <c r="K33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L33" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N33" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="O33" t="s">
         <v>176</v>
       </c>
       <c r="P33" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q33" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="R33" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="S33" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="T33" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="U33" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="V33" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="W33" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -4940,13 +4959,13 @@
         <v>318</v>
       </c>
       <c r="K34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L34" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N34" t="s">
         <v>176</v>
@@ -4955,28 +4974,28 @@
         <v>176</v>
       </c>
       <c r="P34" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="Q34" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="R34" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="S34" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="T34" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="U34" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="V34" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="W34" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -5011,13 +5030,13 @@
         <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M35" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N35" t="s">
         <v>176</v>
@@ -5026,28 +5045,28 @@
         <v>176</v>
       </c>
       <c r="P35" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q35" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="R35" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="S35" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="T35" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="U35" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="V35" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="W35" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -5082,13 +5101,13 @@
         <v>318</v>
       </c>
       <c r="K36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L36" t="s">
         <v>176</v>
       </c>
       <c r="M36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N36" t="s">
         <v>176</v>
@@ -5097,28 +5116,28 @@
         <v>176</v>
       </c>
       <c r="P36" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q36" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="R36" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="S36" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="T36" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="U36" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="V36" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="W36" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -5153,43 +5172,43 @@
         <v>318</v>
       </c>
       <c r="K37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N37" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="O37" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P37" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="Q37" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="R37" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="S37" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="T37" t="s">
         <v>176</v>
       </c>
       <c r="U37" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V37" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="W37" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -5224,13 +5243,13 @@
         <v>318</v>
       </c>
       <c r="K38" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N38" t="s">
         <v>176</v>
@@ -5239,28 +5258,28 @@
         <v>176</v>
       </c>
       <c r="P38" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="Q38" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="R38" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="S38" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="T38" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="U38" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="V38" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="W38" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -5295,13 +5314,13 @@
         <v>318</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M39" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N39" t="s">
         <v>176</v>
@@ -5310,10 +5329,10 @@
         <v>176</v>
       </c>
       <c r="P39" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q39" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="R39" t="s">
         <v>176</v>
@@ -5325,13 +5344,13 @@
         <v>176</v>
       </c>
       <c r="U39" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V39" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="W39" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -5366,13 +5385,13 @@
         <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N40" t="s">
         <v>176</v>
@@ -5381,28 +5400,28 @@
         <v>176</v>
       </c>
       <c r="P40" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q40" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="R40" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="S40" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="T40" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="U40" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V40" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="W40" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -5437,43 +5456,43 @@
         <v>318</v>
       </c>
       <c r="K41" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M41" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N41" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="O41" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="P41" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="Q41" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="R41" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="S41" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="T41" t="s">
         <v>176</v>
       </c>
       <c r="U41" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="V41" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="W41" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -5508,13 +5527,13 @@
         <v>318</v>
       </c>
       <c r="K42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M42" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N42" t="s">
         <v>176</v>
@@ -5523,28 +5542,28 @@
         <v>176</v>
       </c>
       <c r="P42" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="Q42" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="R42" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="S42" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="T42" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="U42" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="V42" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="W42" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -5579,13 +5598,13 @@
         <v>318</v>
       </c>
       <c r="K43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L43" t="s">
         <v>176</v>
       </c>
       <c r="M43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N43" t="s">
         <v>176</v>
@@ -5594,28 +5613,28 @@
         <v>176</v>
       </c>
       <c r="P43" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q43" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="R43" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="S43" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="T43" t="s">
         <v>176</v>
       </c>
       <c r="U43" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V43" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="W43" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -5650,43 +5669,43 @@
         <v>318</v>
       </c>
       <c r="K44" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M44" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N44" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O44" t="s">
         <v>176</v>
       </c>
       <c r="P44" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="Q44" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="R44" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="S44" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="T44" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="U44" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="V44" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="W44" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -5721,13 +5740,13 @@
         <v>318</v>
       </c>
       <c r="K45" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M45" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N45" t="s">
         <v>176</v>
@@ -5736,28 +5755,28 @@
         <v>176</v>
       </c>
       <c r="P45" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q45" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="R45" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="S45" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="T45" t="s">
         <v>176</v>
       </c>
       <c r="U45" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="V45" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="W45" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -5792,13 +5811,13 @@
         <v>318</v>
       </c>
       <c r="K46" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N46" t="s">
         <v>176</v>
@@ -5807,28 +5826,28 @@
         <v>176</v>
       </c>
       <c r="P46" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q46" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="R46" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="S46" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="T46" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="U46" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="V46" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="W46" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -5863,13 +5882,13 @@
         <v>318</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N47" t="s">
         <v>176</v>
@@ -5878,10 +5897,10 @@
         <v>176</v>
       </c>
       <c r="P47" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="Q47" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="R47" t="s">
         <v>176</v>
@@ -5893,13 +5912,13 @@
         <v>176</v>
       </c>
       <c r="U47" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="V47" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="W47" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -5934,13 +5953,13 @@
         <v>318</v>
       </c>
       <c r="K48" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N48" t="s">
         <v>176</v>
@@ -5949,28 +5968,28 @@
         <v>176</v>
       </c>
       <c r="P48" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="Q48" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="R48" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="S48" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="T48" t="s">
         <v>176</v>
       </c>
       <c r="U48" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V48" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="W48" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -6005,13 +6024,13 @@
         <v>318</v>
       </c>
       <c r="K49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M49" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s">
         <v>176</v>
@@ -6020,10 +6039,10 @@
         <v>176</v>
       </c>
       <c r="P49" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="Q49" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="R49" t="s">
         <v>176</v>
@@ -6035,13 +6054,13 @@
         <v>176</v>
       </c>
       <c r="U49" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="V49" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="W49" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -100,7 +100,7 @@
     <t>Aixa Ximena</t>
   </si>
   <si>
-    <t>ANDRE FERANDO</t>
+    <t>Andre Fernando</t>
   </si>
   <si>
     <t xml:space="preserve">Andrés Camilo </t>
@@ -235,7 +235,7 @@
     <t>Ramírez Mendoza</t>
   </si>
   <si>
-    <t>FLORIAN SALCEDO</t>
+    <t>Florian Salcedo</t>
   </si>
   <si>
     <t>Cala Gómez</t>
@@ -1306,7 +1306,7 @@
     <t>Jairo Contreras</t>
   </si>
   <si>
-    <t>Javier Alfonso Sarmiento Rozo</t>
+    <t>Javier</t>
   </si>
   <si>
     <t xml:space="preserve">Carolina Vargas Muñoz </t>
@@ -1675,7 +1675,7 @@
     <t xml:space="preserve">Alba Doris Morales </t>
   </si>
   <si>
-    <t>Jenny Amparo Rosales Agredo</t>
+    <t>Jenny</t>
   </si>
   <si>
     <t>Maria Camila Arango</t>
@@ -2576,12 +2576,14 @@
     <col min="13" max="13" width="32.7109375" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="17" width="47.7109375" customWidth="1"/>
+    <col min="16" max="16" width="47.7109375" customWidth="1"/>
+    <col min="17" max="17" width="47.7109375" customWidth="1"/>
     <col min="18" max="18" width="34.7109375" customWidth="1"/>
     <col min="19" max="19" width="38.7109375" customWidth="1"/>
     <col min="20" max="20" width="21.7109375" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="23" width="29.7109375" customWidth="1"/>
+    <col min="22" max="22" width="29.7109375" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">

--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="727">
   <si>
     <t>Nombres</t>
   </si>
@@ -1358,9 +1358,6 @@
   </si>
   <si>
     <t>pedro.montagut@claro.com.co</t>
-  </si>
-  <si>
-    <t>alberto.cantillo@claro.com.co</t>
   </si>
   <si>
     <t>vianna.jimenez@claro.com.co</t>
@@ -2704,28 +2701,28 @@
         <v>176</v>
       </c>
       <c r="P2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T2" t="s">
         <v>176</v>
       </c>
       <c r="U2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2775,28 +2772,28 @@
         <v>176</v>
       </c>
       <c r="P3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T3" t="s">
         <v>176</v>
       </c>
       <c r="U3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2846,28 +2843,28 @@
         <v>176</v>
       </c>
       <c r="P4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="T4" t="s">
         <v>176</v>
       </c>
       <c r="U4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="V4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2917,28 +2914,28 @@
         <v>176</v>
       </c>
       <c r="P5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2988,28 +2985,28 @@
         <v>176</v>
       </c>
       <c r="P6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="S6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -3059,28 +3056,28 @@
         <v>176</v>
       </c>
       <c r="P7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S7" t="s">
         <v>252</v>
       </c>
       <c r="T7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="U7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="V7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="W7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -3130,10 +3127,10 @@
         <v>176</v>
       </c>
       <c r="P8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R8" t="s">
         <v>176</v>
@@ -3145,13 +3142,13 @@
         <v>176</v>
       </c>
       <c r="U8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -3201,28 +3198,28 @@
         <v>176</v>
       </c>
       <c r="P9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -3269,31 +3266,31 @@
         <v>446</v>
       </c>
       <c r="O10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="V10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -3340,31 +3337,31 @@
         <v>447</v>
       </c>
       <c r="O11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="U11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -3414,28 +3411,28 @@
         <v>176</v>
       </c>
       <c r="P12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="T12" t="s">
         <v>176</v>
       </c>
       <c r="U12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -3485,28 +3482,28 @@
         <v>176</v>
       </c>
       <c r="P13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="W13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -3556,28 +3553,28 @@
         <v>176</v>
       </c>
       <c r="P14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -3627,28 +3624,28 @@
         <v>176</v>
       </c>
       <c r="P15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="U15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="W15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -3698,10 +3695,10 @@
         <v>176</v>
       </c>
       <c r="P16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R16" t="s">
         <v>176</v>
@@ -3713,13 +3710,13 @@
         <v>176</v>
       </c>
       <c r="U16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="V16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="W16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3769,28 +3766,28 @@
         <v>176</v>
       </c>
       <c r="P17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="T17" t="s">
         <v>176</v>
       </c>
       <c r="U17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="V17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="W17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -3840,13 +3837,13 @@
         <v>176</v>
       </c>
       <c r="P18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S18" t="s">
         <v>176</v>
@@ -3855,13 +3852,13 @@
         <v>176</v>
       </c>
       <c r="U18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="V18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="W18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3911,28 +3908,28 @@
         <v>176</v>
       </c>
       <c r="P19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T19" t="s">
         <v>176</v>
       </c>
       <c r="U19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="V19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="W19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3976,34 +3973,34 @@
         <v>420</v>
       </c>
       <c r="N20" t="s">
-        <v>448</v>
+        <v>242</v>
       </c>
       <c r="O20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T20" t="s">
         <v>176</v>
       </c>
       <c r="U20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V20" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -4047,34 +4044,34 @@
         <v>421</v>
       </c>
       <c r="N21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="S21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="W21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -4124,10 +4121,10 @@
         <v>176</v>
       </c>
       <c r="P22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R22" t="s">
         <v>176</v>
@@ -4139,13 +4136,13 @@
         <v>176</v>
       </c>
       <c r="U22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -4195,28 +4192,28 @@
         <v>176</v>
       </c>
       <c r="P23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="V23" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -4266,28 +4263,28 @@
         <v>176</v>
       </c>
       <c r="P24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="S24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="W24" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -4337,28 +4334,28 @@
         <v>176</v>
       </c>
       <c r="P25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q25" t="s">
         <v>290</v>
       </c>
       <c r="R25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T25" t="s">
         <v>176</v>
       </c>
       <c r="U25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V25" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="W25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -4408,25 +4405,25 @@
         <v>176</v>
       </c>
       <c r="P26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="W26" t="s">
         <v>200</v>
@@ -4473,34 +4470,34 @@
         <v>427</v>
       </c>
       <c r="N27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q27" t="s">
         <v>290</v>
       </c>
       <c r="R27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="U27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="W27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -4550,28 +4547,28 @@
         <v>176</v>
       </c>
       <c r="P28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S28" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="U28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -4621,10 +4618,10 @@
         <v>176</v>
       </c>
       <c r="P29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R29" t="s">
         <v>176</v>
@@ -4636,13 +4633,13 @@
         <v>176</v>
       </c>
       <c r="U29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -4689,31 +4686,31 @@
         <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S30" t="s">
         <v>252</v>
       </c>
       <c r="T30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="W30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -4763,28 +4760,28 @@
         <v>176</v>
       </c>
       <c r="P31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="U31" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="V31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W31" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -4834,28 +4831,28 @@
         <v>176</v>
       </c>
       <c r="P32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q32" t="s">
         <v>290</v>
       </c>
       <c r="R32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -4899,34 +4896,34 @@
         <v>432</v>
       </c>
       <c r="N33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O33" t="s">
         <v>176</v>
       </c>
       <c r="P33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="R33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="T33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="V33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -4976,28 +4973,28 @@
         <v>176</v>
       </c>
       <c r="P34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="W34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -5047,28 +5044,28 @@
         <v>176</v>
       </c>
       <c r="P35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V35" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -5118,28 +5115,28 @@
         <v>176</v>
       </c>
       <c r="P36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="R36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="U36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="W36" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -5183,34 +5180,34 @@
         <v>435</v>
       </c>
       <c r="N37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="T37" t="s">
         <v>176</v>
       </c>
       <c r="U37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="W37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -5260,28 +5257,28 @@
         <v>176</v>
       </c>
       <c r="P38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="V38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="W38" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -5331,10 +5328,10 @@
         <v>176</v>
       </c>
       <c r="P39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R39" t="s">
         <v>176</v>
@@ -5346,13 +5343,13 @@
         <v>176</v>
       </c>
       <c r="U39" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V39" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W39" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -5402,28 +5399,28 @@
         <v>176</v>
       </c>
       <c r="P40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U40" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="W40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -5467,34 +5464,34 @@
         <v>438</v>
       </c>
       <c r="N41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T41" t="s">
         <v>176</v>
       </c>
       <c r="U41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="V41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="W41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -5544,28 +5541,28 @@
         <v>176</v>
       </c>
       <c r="P42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R42" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="V42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="W42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -5615,28 +5612,28 @@
         <v>176</v>
       </c>
       <c r="P43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="T43" t="s">
         <v>176</v>
       </c>
       <c r="U43" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W43" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -5686,28 +5683,28 @@
         <v>176</v>
       </c>
       <c r="P44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="R44" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U44" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="W44" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -5757,28 +5754,28 @@
         <v>176</v>
       </c>
       <c r="P45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="R45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S45" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T45" t="s">
         <v>176</v>
       </c>
       <c r="U45" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="W45" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -5828,28 +5825,28 @@
         <v>176</v>
       </c>
       <c r="P46" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S46" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T46" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V46" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="W46" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -5899,10 +5896,10 @@
         <v>176</v>
       </c>
       <c r="P47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q47" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R47" t="s">
         <v>176</v>
@@ -5914,13 +5911,13 @@
         <v>176</v>
       </c>
       <c r="U47" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="V47" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="W47" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -5970,28 +5967,28 @@
         <v>176</v>
       </c>
       <c r="P48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S48" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T48" t="s">
         <v>176</v>
       </c>
       <c r="U48" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V48" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="W48" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -6041,10 +6038,10 @@
         <v>176</v>
       </c>
       <c r="P49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R49" t="s">
         <v>176</v>
@@ -6056,13 +6053,13 @@
         <v>176</v>
       </c>
       <c r="U49" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="W49" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>

--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -1306,7 +1306,7 @@
     <t>Jairo Contreras</t>
   </si>
   <si>
-    <t>Javier</t>
+    <t>Javier Sarmiento</t>
   </si>
   <si>
     <t xml:space="preserve">Carolina Vargas Muñoz </t>
@@ -1672,7 +1672,7 @@
     <t xml:space="preserve">Alba Doris Morales </t>
   </si>
   <si>
-    <t>Jenny</t>
+    <t>Jenny Rosales</t>
   </si>
   <si>
     <t>Maria Camila Arango</t>

--- a/data/datos practicantes.xlsx
+++ b/data/datos practicantes.xlsx
@@ -2573,14 +2573,12 @@
     <col min="13" max="13" width="32.7109375" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="47.7109375" customWidth="1"/>
-    <col min="17" max="17" width="47.7109375" customWidth="1"/>
+    <col min="16" max="17" width="47.7109375" customWidth="1"/>
     <col min="18" max="18" width="34.7109375" customWidth="1"/>
     <col min="19" max="19" width="38.7109375" customWidth="1"/>
     <col min="20" max="20" width="21.7109375" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="29.7109375" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" customWidth="1"/>
+    <col min="22" max="23" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
